--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:P15"/>
+  <dimension ref="A6:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1521,13 +1521,13 @@
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>13</v>
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -1575,7 +1575,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15"/>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/8</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>スケアクロー</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:P16"/>
+  <dimension ref="A6:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1608,7 +1608,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16"/>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/8</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>恐竜</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:P17"/>
+  <dimension ref="A6:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1587,19 +1587,19 @@
         </is>
       </c>
       <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -1641,7 +1641,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17"/>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/8</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>こあくま</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:P18"/>
+  <dimension ref="A6:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1343,6 +1343,12 @@
       <c r="I7" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -1376,6 +1382,12 @@
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -1409,6 +1421,12 @@
       <c r="I9" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J9" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -1442,6 +1460,12 @@
       <c r="I10" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -1475,6 +1499,12 @@
       <c r="I11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -1508,6 +1538,12 @@
       <c r="I12" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="J12" s="0" t="n">
+        <v/>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -1541,6 +1577,12 @@
       <c r="I13" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J13" s="0" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -1574,6 +1616,12 @@
       <c r="I14" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J14" s="0" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -1607,6 +1655,12 @@
       <c r="I15" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -1640,6 +1694,12 @@
       <c r="I16" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J16" s="0" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -1673,8 +1733,53 @@
       <c r="I17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18"/>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/9</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>粛声</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1226,13 +1226,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:P19"/>
+  <dimension ref="A6:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -1314,472 +1314,43 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2024/10/7</t>
+          <t>2024/10/9</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>ティアラメンツ</t>
+          <t>スケアクロー</t>
         </is>
       </c>
       <c r="C7" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.462</v>
+        <v>0.778</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/7</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>残機</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/7</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>スケアクロー</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v/>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/7</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>ライトロード</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/7</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>粛声</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/8</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>粛声</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v/>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/8</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>ライトロード</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/8</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>残機</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/8</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>スケアクロー</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/8</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>恐竜</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/8</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>こあくま</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/9</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>粛声</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="19"/>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1319,36 +1319,34 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>スケアクロー</t>
+          <t>残機</t>
         </is>
       </c>
       <c r="C7" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.333</v>
+      </c>
+      <c r="K7" s="0" t="n"/>
     </row>
     <row r="8"/>
   </sheetData>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:P8"/>
+  <dimension ref="A6:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1319,36 +1319,75 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>残機</t>
+          <t>スケアクロー</t>
         </is>
       </c>
       <c r="C7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/9</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>ティアラメンツ</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>0.333</v>
       </c>
-      <c r="K7" s="0" t="n"/>
+      <c r="K8" s="0" t="n"/>
     </row>
-    <row r="8"/>
+    <row r="9"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:P9"/>
+  <dimension ref="A6:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1387,7 +1387,46 @@
       </c>
       <c r="K8" s="0" t="n"/>
     </row>
-    <row r="9"/>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/9</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>恐竜</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1362,30 +1362,32 @@
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="K8" s="0" t="n"/>
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:P10"/>
+  <dimension ref="A6:P600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1312,123 +1312,646 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/9</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>スケアクロー</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
+      <c r="F7" s="0" t="n"/>
+      <c r="G7" s="0" t="n"/>
+      <c r="H7" s="0" t="n"/>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="0" t="n"/>
+      <c r="K7" s="0" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/9</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>ティアラメンツ</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
+      <c r="F8" s="0" t="n"/>
+      <c r="G8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="0" t="n"/>
+      <c r="K8" s="0" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2024/10/9</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>恐竜</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+      <c r="F9" s="0" t="n"/>
+      <c r="G9" s="0" t="n"/>
+      <c r="H9" s="0" t="n"/>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="n"/>
+      <c r="K9" s="0" t="n"/>
     </row>
-    <row r="10"/>
+    <row r="10">
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="n"/>
+      <c r="F10" s="0" t="n"/>
+      <c r="G10" s="0" t="n"/>
+      <c r="H10" s="0" t="n"/>
+      <c r="I10" s="0" t="n"/>
+      <c r="J10" s="0" t="n"/>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1323,6 +1323,15 @@
       <c r="I7" s="0" t="n"/>
       <c r="J7" s="0" t="n"/>
       <c r="K7" s="0" t="n"/>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n"/>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1327,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1345,6 +1345,15 @@
       <c r="I8" s="0" t="n"/>
       <c r="J8" s="0" t="n"/>
       <c r="K8" s="0" t="n"/>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n"/>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13545" windowHeight="12180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="シート1" sheetId="1" state="visible" r:id="rId1"/>
@@ -1226,13 +1226,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:P600"/>
+  <dimension ref="A6:N600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="L7:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -1290,24 +1290,19 @@
           <t>後手勝率</t>
         </is>
       </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>勝ち</t>
+        </is>
+      </c>
       <c r="M6" s="0" t="inlineStr">
         <is>
-          <t>総対戦数</t>
+          <t>負け</t>
         </is>
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
           <t>勝率</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="inlineStr">
-        <is>
-          <t>先手勝率</t>
-        </is>
-      </c>
-      <c r="P6" s="0" t="inlineStr">
-        <is>
-          <t>後手勝率</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1316,6 @@
       <c r="G7" s="0" t="n"/>
       <c r="H7" s="0" t="n"/>
       <c r="I7" s="0" t="n"/>
-      <c r="J7" s="0" t="n"/>
-      <c r="K7" s="0" t="n"/>
-      <c r="L7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n"/>
@@ -1346,13 +1330,13 @@
       <c r="J8" s="0" t="n"/>
       <c r="K8" s="0" t="n"/>
       <c r="L8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0.333</v>
       </c>
     </row>
     <row r="9">
@@ -1365,8 +1349,6 @@
       <c r="G9" s="0" t="n"/>
       <c r="H9" s="0" t="n"/>
       <c r="I9" s="0" t="n"/>
-      <c r="J9" s="0" t="n"/>
-      <c r="K9" s="0" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n"/>
@@ -1379,10 +1361,69 @@
       <c r="H10" s="0" t="n"/>
       <c r="I10" s="0" t="n"/>
       <c r="J10" s="0" t="n"/>
+      <c r="L10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
+    <row r="11">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="G11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="0" t="n"/>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n"/>
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="0" t="n"/>
+      <c r="E12" s="0" t="n"/>
+      <c r="F12" s="0" t="n"/>
+      <c r="G12" s="0" t="n"/>
+      <c r="H12" s="0" t="n"/>
+      <c r="I12" s="0" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n"/>
+      <c r="B13" s="0" t="n"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="0" t="n"/>
+      <c r="E13" s="0" t="n"/>
+      <c r="F13" s="0" t="n"/>
+      <c r="G13" s="0" t="n"/>
+      <c r="H13" s="0" t="n"/>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="0" t="n"/>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="14"/>
     <row r="15"/>
     <row r="16"/>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1329,15 +1329,9 @@
       <c r="I8" s="0" t="n"/>
       <c r="J8" s="0" t="n"/>
       <c r="K8" s="0" t="n"/>
-      <c r="L8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="L8" s="0" t="n"/>
+      <c r="M8" s="0" t="n"/>
+      <c r="N8" s="0" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n"/>
@@ -1361,15 +1355,9 @@
       <c r="H10" s="0" t="n"/>
       <c r="I10" s="0" t="n"/>
       <c r="J10" s="0" t="n"/>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="L10" s="0" t="n"/>
+      <c r="M10" s="0" t="n"/>
+      <c r="N10" s="0" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n"/>
@@ -1382,15 +1370,9 @@
       <c r="H11" s="0" t="n"/>
       <c r="I11" s="0" t="n"/>
       <c r="J11" s="0" t="n"/>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="L11" s="0" t="n"/>
+      <c r="M11" s="0" t="n"/>
+      <c r="N11" s="0" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n"/>
@@ -1414,15 +1396,9 @@
       <c r="H13" s="0" t="n"/>
       <c r="I13" s="0" t="n"/>
       <c r="J13" s="0" t="n"/>
-      <c r="L13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="L13" s="0" t="n"/>
+      <c r="M13" s="0" t="n"/>
+      <c r="N13" s="0" t="n"/>
     </row>
     <row r="14"/>
     <row r="15"/>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1343,6 +1343,10 @@
       <c r="G9" s="0" t="n"/>
       <c r="H9" s="0" t="n"/>
       <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="n"/>
+      <c r="L9" s="0" t="n"/>
+      <c r="M9" s="0" t="n"/>
+      <c r="N9" s="0" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n"/>
@@ -1355,6 +1359,7 @@
       <c r="H10" s="0" t="n"/>
       <c r="I10" s="0" t="n"/>
       <c r="J10" s="0" t="n"/>
+      <c r="K10" s="0" t="n"/>
       <c r="L10" s="0" t="n"/>
       <c r="M10" s="0" t="n"/>
       <c r="N10" s="0" t="n"/>
@@ -1370,6 +1375,7 @@
       <c r="H11" s="0" t="n"/>
       <c r="I11" s="0" t="n"/>
       <c r="J11" s="0" t="n"/>
+      <c r="K11" s="0" t="n"/>
       <c r="L11" s="0" t="n"/>
       <c r="M11" s="0" t="n"/>
       <c r="N11" s="0" t="n"/>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13545" windowHeight="12180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="シート1" sheetId="1" state="visible" r:id="rId1"/>
@@ -1228,11 +1228,11 @@
   </sheetPr>
   <dimension ref="A6:N600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N7" sqref="L7:N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -1309,13 +1309,6 @@
     <row r="7">
       <c r="A7" s="0" t="n"/>
       <c r="B7" s="0" t="n"/>
-      <c r="C7" s="0" t="n"/>
-      <c r="D7" s="0" t="n"/>
-      <c r="E7" s="0" t="n"/>
-      <c r="F7" s="0" t="n"/>
-      <c r="G7" s="0" t="n"/>
-      <c r="H7" s="0" t="n"/>
-      <c r="I7" s="0" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n"/>
@@ -1328,7 +1321,6 @@
       <c r="H8" s="0" t="n"/>
       <c r="I8" s="0" t="n"/>
       <c r="J8" s="0" t="n"/>
-      <c r="K8" s="0" t="n"/>
       <c r="L8" s="0" t="n"/>
       <c r="M8" s="0" t="n"/>
       <c r="N8" s="0" t="n"/>
@@ -1336,17 +1328,6 @@
     <row r="9">
       <c r="A9" s="0" t="n"/>
       <c r="B9" s="0" t="n"/>
-      <c r="C9" s="0" t="n"/>
-      <c r="D9" s="0" t="n"/>
-      <c r="E9" s="0" t="n"/>
-      <c r="F9" s="0" t="n"/>
-      <c r="G9" s="0" t="n"/>
-      <c r="H9" s="0" t="n"/>
-      <c r="I9" s="0" t="n"/>
-      <c r="J9" s="0" t="n"/>
-      <c r="L9" s="0" t="n"/>
-      <c r="M9" s="0" t="n"/>
-      <c r="N9" s="0" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n"/>
@@ -1359,7 +1340,6 @@
       <c r="H10" s="0" t="n"/>
       <c r="I10" s="0" t="n"/>
       <c r="J10" s="0" t="n"/>
-      <c r="K10" s="0" t="n"/>
       <c r="L10" s="0" t="n"/>
       <c r="M10" s="0" t="n"/>
       <c r="N10" s="0" t="n"/>
@@ -1390,6 +1370,10 @@
       <c r="G12" s="0" t="n"/>
       <c r="H12" s="0" t="n"/>
       <c r="I12" s="0" t="n"/>
+      <c r="J12" s="0" t="n"/>
+      <c r="L12" s="0" t="n"/>
+      <c r="M12" s="0" t="n"/>
+      <c r="N12" s="0" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n"/>
@@ -1406,17 +1390,141 @@
       <c r="M13" s="0" t="n"/>
       <c r="N13" s="0" t="n"/>
     </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
+    <row r="14">
+      <c r="A14" s="0" t="n"/>
+      <c r="B14" s="0" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n"/>
+      <c r="B15" s="0" t="n"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="0" t="n"/>
+      <c r="E15" s="0" t="n"/>
+      <c r="F15" s="0" t="n"/>
+      <c r="G15" s="0" t="n"/>
+      <c r="H15" s="0" t="n"/>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="0" t="n"/>
+      <c r="L15" s="0" t="n"/>
+      <c r="M15" s="0" t="n"/>
+      <c r="N15" s="0" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n"/>
+      <c r="B16" s="0" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n"/>
+      <c r="B17" s="0" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="0" t="n"/>
+      <c r="E17" s="0" t="n"/>
+      <c r="F17" s="0" t="n"/>
+      <c r="G17" s="0" t="n"/>
+      <c r="H17" s="0" t="n"/>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="0" t="n"/>
+      <c r="K17" s="0" t="n"/>
+      <c r="L17" s="0" t="n"/>
+      <c r="M17" s="0" t="n"/>
+      <c r="N17" s="0" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n"/>
+      <c r="B18" s="0" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n"/>
+      <c r="B19" s="0" t="n"/>
+      <c r="C19" s="0" t="n"/>
+      <c r="D19" s="0" t="n"/>
+      <c r="E19" s="0" t="n"/>
+      <c r="F19" s="0" t="n"/>
+      <c r="G19" s="0" t="n"/>
+      <c r="H19" s="0" t="n"/>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="0" t="n"/>
+      <c r="K19" s="0" t="n"/>
+      <c r="L19" s="0" t="n"/>
+      <c r="M19" s="0" t="n"/>
+      <c r="N19" s="0" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n"/>
+      <c r="B20" s="0" t="n"/>
+      <c r="C20" s="0" t="n"/>
+      <c r="D20" s="0" t="n"/>
+      <c r="E20" s="0" t="n"/>
+      <c r="F20" s="0" t="n"/>
+      <c r="G20" s="0" t="n"/>
+      <c r="H20" s="0" t="n"/>
+      <c r="I20" s="0" t="n"/>
+      <c r="J20" s="0" t="n"/>
+      <c r="K20" s="0" t="n"/>
+      <c r="L20" s="0" t="n"/>
+      <c r="M20" s="0" t="n"/>
+      <c r="N20" s="0" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n"/>
+      <c r="B21" s="0" t="n"/>
+      <c r="C21" s="0" t="n"/>
+      <c r="D21" s="0" t="n"/>
+      <c r="E21" s="0" t="n"/>
+      <c r="F21" s="0" t="n"/>
+      <c r="G21" s="0" t="n"/>
+      <c r="H21" s="0" t="n"/>
+      <c r="I21" s="0" t="n"/>
+      <c r="J21" s="0" t="n"/>
+      <c r="L21" s="0" t="n"/>
+      <c r="M21" s="0" t="n"/>
+      <c r="N21" s="0" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n"/>
+      <c r="B22" s="0" t="n"/>
+      <c r="C22" s="0" t="n"/>
+      <c r="D22" s="0" t="n"/>
+      <c r="E22" s="0" t="n"/>
+      <c r="F22" s="0" t="n"/>
+      <c r="G22" s="0" t="n"/>
+      <c r="H22" s="0" t="n"/>
+      <c r="I22" s="0" t="n"/>
+      <c r="J22" s="0" t="n"/>
+      <c r="L22" s="0" t="n"/>
+      <c r="M22" s="0" t="n"/>
+      <c r="N22" s="0" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n"/>
+      <c r="B23" s="0" t="n"/>
+      <c r="C23" s="0" t="n"/>
+      <c r="D23" s="0" t="n"/>
+      <c r="E23" s="0" t="n"/>
+      <c r="F23" s="0" t="n"/>
+      <c r="G23" s="0" t="n"/>
+      <c r="H23" s="0" t="n"/>
+      <c r="I23" s="0" t="n"/>
+      <c r="K23" s="0" t="n"/>
+      <c r="L23" s="0" t="n"/>
+      <c r="M23" s="0" t="n"/>
+      <c r="N23" s="0" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n"/>
+      <c r="B24" s="0" t="n"/>
+      <c r="C24" s="0" t="n"/>
+      <c r="D24" s="0" t="n"/>
+      <c r="E24" s="0" t="n"/>
+      <c r="F24" s="0" t="n"/>
+      <c r="G24" s="0" t="n"/>
+      <c r="H24" s="0" t="n"/>
+      <c r="I24" s="0" t="n"/>
+      <c r="K24" s="0" t="n"/>
+      <c r="L24" s="0" t="n"/>
+      <c r="M24" s="0" t="n"/>
+      <c r="N24" s="0" t="n"/>
+    </row>
     <row r="25"/>
     <row r="26"/>
     <row r="27"/>

--- a/database_florting/dueldatas.xlsx
+++ b/database_florting/dueldatas.xlsx
@@ -1228,8 +1228,8 @@
   </sheetPr>
   <dimension ref="A6:N600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:N24"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,7 +1320,7 @@
       <c r="G8" s="0" t="n"/>
       <c r="H8" s="0" t="n"/>
       <c r="I8" s="0" t="n"/>
-      <c r="J8" s="0" t="n"/>
+      <c r="K8" s="0" t="n"/>
       <c r="L8" s="0" t="n"/>
       <c r="M8" s="0" t="n"/>
       <c r="N8" s="0" t="n"/>
@@ -1328,6 +1328,17 @@
     <row r="9">
       <c r="A9" s="0" t="n"/>
       <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+      <c r="F9" s="0" t="n"/>
+      <c r="G9" s="0" t="n"/>
+      <c r="H9" s="0" t="n"/>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="n"/>
+      <c r="L9" s="0" t="n"/>
+      <c r="M9" s="0" t="n"/>
+      <c r="N9" s="0" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n"/>
@@ -1355,7 +1366,6 @@
       <c r="H11" s="0" t="n"/>
       <c r="I11" s="0" t="n"/>
       <c r="J11" s="0" t="n"/>
-      <c r="K11" s="0" t="n"/>
       <c r="L11" s="0" t="n"/>
       <c r="M11" s="0" t="n"/>
       <c r="N11" s="0" t="n"/>
@@ -1370,7 +1380,7 @@
       <c r="G12" s="0" t="n"/>
       <c r="H12" s="0" t="n"/>
       <c r="I12" s="0" t="n"/>
-      <c r="J12" s="0" t="n"/>
+      <c r="K12" s="0" t="n"/>
       <c r="L12" s="0" t="n"/>
       <c r="M12" s="0" t="n"/>
       <c r="N12" s="0" t="n"/>
@@ -1378,21 +1388,21 @@
     <row r="13">
       <c r="A13" s="0" t="n"/>
       <c r="B13" s="0" t="n"/>
-      <c r="C13" s="0" t="n"/>
-      <c r="D13" s="0" t="n"/>
-      <c r="E13" s="0" t="n"/>
-      <c r="F13" s="0" t="n"/>
-      <c r="G13" s="0" t="n"/>
-      <c r="H13" s="0" t="n"/>
-      <c r="I13" s="0" t="n"/>
-      <c r="J13" s="0" t="n"/>
-      <c r="L13" s="0" t="n"/>
-      <c r="M13" s="0" t="n"/>
-      <c r="N13" s="0" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n"/>
       <c r="B14" s="0" t="n"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="0" t="n"/>
+      <c r="E14" s="0" t="n"/>
+      <c r="F14" s="0" t="n"/>
+      <c r="G14" s="0" t="n"/>
+      <c r="H14" s="0" t="n"/>
+      <c r="I14" s="0" t="n"/>
+      <c r="J14" s="0" t="n"/>
+      <c r="L14" s="0" t="n"/>
+      <c r="M14" s="0" t="n"/>
+      <c r="N14" s="0" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n"/>
@@ -1405,6 +1415,7 @@
       <c r="H15" s="0" t="n"/>
       <c r="I15" s="0" t="n"/>
       <c r="J15" s="0" t="n"/>
+      <c r="K15" s="0" t="n"/>
       <c r="L15" s="0" t="n"/>
       <c r="M15" s="0" t="n"/>
       <c r="N15" s="0" t="n"/>
@@ -1412,6 +1423,17 @@
     <row r="16">
       <c r="A16" s="0" t="n"/>
       <c r="B16" s="0" t="n"/>
+      <c r="C16" s="0" t="n"/>
+      <c r="D16" s="0" t="n"/>
+      <c r="E16" s="0" t="n"/>
+      <c r="F16" s="0" t="n"/>
+      <c r="G16" s="0" t="n"/>
+      <c r="H16" s="0" t="n"/>
+      <c r="I16" s="0" t="n"/>
+      <c r="K16" s="0" t="n"/>
+      <c r="L16" s="0" t="n"/>
+      <c r="M16" s="0" t="n"/>
+      <c r="N16" s="0" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n"/>
@@ -1423,7 +1445,6 @@
       <c r="G17" s="0" t="n"/>
       <c r="H17" s="0" t="n"/>
       <c r="I17" s="0" t="n"/>
-      <c r="J17" s="0" t="n"/>
       <c r="K17" s="0" t="n"/>
       <c r="L17" s="0" t="n"/>
       <c r="M17" s="0" t="n"/>
@@ -1443,7 +1464,6 @@
       <c r="G19" s="0" t="n"/>
       <c r="H19" s="0" t="n"/>
       <c r="I19" s="0" t="n"/>
-      <c r="J19" s="0" t="n"/>
       <c r="K19" s="0" t="n"/>
       <c r="L19" s="0" t="n"/>
       <c r="M19" s="0" t="n"/>
@@ -1459,7 +1479,6 @@
       <c r="G20" s="0" t="n"/>
       <c r="H20" s="0" t="n"/>
       <c r="I20" s="0" t="n"/>
-      <c r="J20" s="0" t="n"/>
       <c r="K20" s="0" t="n"/>
       <c r="L20" s="0" t="n"/>
       <c r="M20" s="0" t="n"/>
@@ -1476,6 +1495,7 @@
       <c r="H21" s="0" t="n"/>
       <c r="I21" s="0" t="n"/>
       <c r="J21" s="0" t="n"/>
+      <c r="K21" s="0" t="n"/>
       <c r="L21" s="0" t="n"/>
       <c r="M21" s="0" t="n"/>
       <c r="N21" s="0" t="n"/>
@@ -1505,7 +1525,7 @@
       <c r="G23" s="0" t="n"/>
       <c r="H23" s="0" t="n"/>
       <c r="I23" s="0" t="n"/>
-      <c r="K23" s="0" t="n"/>
+      <c r="J23" s="0" t="n"/>
       <c r="L23" s="0" t="n"/>
       <c r="M23" s="0" t="n"/>
       <c r="N23" s="0" t="n"/>
@@ -1525,265 +1545,3372 @@
       <c r="M24" s="0" t="n"/>
       <c r="N24" s="0" t="n"/>
     </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
+    <row r="25">
+      <c r="A25" s="0" t="n"/>
+      <c r="B25" s="0" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n"/>
+      <c r="B26" s="0" t="n"/>
+      <c r="C26" s="0" t="n"/>
+      <c r="D26" s="0" t="n"/>
+      <c r="E26" s="0" t="n"/>
+      <c r="F26" s="0" t="n"/>
+      <c r="G26" s="0" t="n"/>
+      <c r="H26" s="0" t="n"/>
+      <c r="I26" s="0" t="n"/>
+      <c r="J26" s="0" t="n"/>
+      <c r="L26" s="0" t="n"/>
+      <c r="M26" s="0" t="n"/>
+      <c r="N26" s="0" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n"/>
+      <c r="B27" s="0" t="n"/>
+      <c r="C27" s="0" t="n"/>
+      <c r="D27" s="0" t="n"/>
+      <c r="E27" s="0" t="n"/>
+      <c r="F27" s="0" t="n"/>
+      <c r="G27" s="0" t="n"/>
+      <c r="H27" s="0" t="n"/>
+      <c r="I27" s="0" t="n"/>
+      <c r="J27" s="0" t="n"/>
+      <c r="L27" s="0" t="n"/>
+      <c r="M27" s="0" t="n"/>
+      <c r="N27" s="0" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n"/>
+      <c r="B28" s="0" t="n"/>
+      <c r="C28" s="0" t="n"/>
+      <c r="D28" s="0" t="n"/>
+      <c r="E28" s="0" t="n"/>
+      <c r="F28" s="0" t="n"/>
+      <c r="G28" s="0" t="n"/>
+      <c r="H28" s="0" t="n"/>
+      <c r="I28" s="0" t="n"/>
+      <c r="J28" s="0" t="n"/>
+      <c r="L28" s="0" t="n"/>
+      <c r="M28" s="0" t="n"/>
+      <c r="N28" s="0" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n"/>
+      <c r="B29" s="0" t="n"/>
+      <c r="C29" s="0" t="n"/>
+      <c r="D29" s="0" t="n"/>
+      <c r="E29" s="0" t="n"/>
+      <c r="F29" s="0" t="n"/>
+      <c r="G29" s="0" t="n"/>
+      <c r="H29" s="0" t="n"/>
+      <c r="I29" s="0" t="n"/>
+      <c r="J29" s="0" t="n"/>
+      <c r="L29" s="0" t="n"/>
+      <c r="M29" s="0" t="n"/>
+      <c r="N29" s="0" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="n"/>
+      <c r="B30" s="0" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="n"/>
+      <c r="B31" s="0" t="n"/>
+      <c r="C31" s="0" t="n"/>
+      <c r="D31" s="0" t="n"/>
+      <c r="E31" s="0" t="n"/>
+      <c r="F31" s="0" t="n"/>
+      <c r="G31" s="0" t="n"/>
+      <c r="H31" s="0" t="n"/>
+      <c r="I31" s="0" t="n"/>
+      <c r="K31" s="0" t="n"/>
+      <c r="L31" s="0" t="n"/>
+      <c r="M31" s="0" t="n"/>
+      <c r="N31" s="0" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="n"/>
+      <c r="B32" s="0" t="n"/>
+      <c r="C32" s="0" t="n"/>
+      <c r="D32" s="0" t="n"/>
+      <c r="E32" s="0" t="n"/>
+      <c r="F32" s="0" t="n"/>
+      <c r="G32" s="0" t="n"/>
+      <c r="H32" s="0" t="n"/>
+      <c r="I32" s="0" t="n"/>
+      <c r="J32" s="0" t="n"/>
+      <c r="L32" s="0" t="n"/>
+      <c r="M32" s="0" t="n"/>
+      <c r="N32" s="0" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="n"/>
+      <c r="B33" s="0" t="n"/>
+      <c r="C33" s="0" t="n"/>
+      <c r="D33" s="0" t="n"/>
+      <c r="E33" s="0" t="n"/>
+      <c r="F33" s="0" t="n"/>
+      <c r="G33" s="0" t="n"/>
+      <c r="H33" s="0" t="n"/>
+      <c r="I33" s="0" t="n"/>
+      <c r="K33" s="0" t="n"/>
+      <c r="L33" s="0" t="n"/>
+      <c r="M33" s="0" t="n"/>
+      <c r="N33" s="0" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="n"/>
+      <c r="B34" s="0" t="n"/>
+      <c r="C34" s="0" t="n"/>
+      <c r="D34" s="0" t="n"/>
+      <c r="E34" s="0" t="n"/>
+      <c r="F34" s="0" t="n"/>
+      <c r="G34" s="0" t="n"/>
+      <c r="H34" s="0" t="n"/>
+      <c r="I34" s="0" t="n"/>
+      <c r="J34" s="0" t="n"/>
+      <c r="L34" s="0" t="n"/>
+      <c r="M34" s="0" t="n"/>
+      <c r="N34" s="0" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="n"/>
+      <c r="B35" s="0" t="n"/>
+      <c r="C35" s="0" t="n"/>
+      <c r="D35" s="0" t="n"/>
+      <c r="E35" s="0" t="n"/>
+      <c r="F35" s="0" t="n"/>
+      <c r="G35" s="0" t="n"/>
+      <c r="H35" s="0" t="n"/>
+      <c r="I35" s="0" t="n"/>
+      <c r="J35" s="0" t="n"/>
+      <c r="L35" s="0" t="n"/>
+      <c r="M35" s="0" t="n"/>
+      <c r="N35" s="0" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="n"/>
+      <c r="B36" s="0" t="n"/>
+      <c r="C36" s="0" t="n"/>
+      <c r="D36" s="0" t="n"/>
+      <c r="E36" s="0" t="n"/>
+      <c r="F36" s="0" t="n"/>
+      <c r="G36" s="0" t="n"/>
+      <c r="H36" s="0" t="n"/>
+      <c r="I36" s="0" t="n"/>
+      <c r="K36" s="0" t="n"/>
+      <c r="L36" s="0" t="n"/>
+      <c r="M36" s="0" t="n"/>
+      <c r="N36" s="0" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="n"/>
+      <c r="B37" s="0" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="n"/>
+      <c r="B38" s="0" t="n"/>
+      <c r="C38" s="0" t="n"/>
+      <c r="D38" s="0" t="n"/>
+      <c r="E38" s="0" t="n"/>
+      <c r="F38" s="0" t="n"/>
+      <c r="G38" s="0" t="n"/>
+      <c r="H38" s="0" t="n"/>
+      <c r="I38" s="0" t="n"/>
+      <c r="J38" s="0" t="n"/>
+      <c r="L38" s="0" t="n"/>
+      <c r="M38" s="0" t="n"/>
+      <c r="N38" s="0" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="n"/>
+      <c r="B39" s="0" t="n"/>
+      <c r="C39" s="0" t="n"/>
+      <c r="D39" s="0" t="n"/>
+      <c r="E39" s="0" t="n"/>
+      <c r="F39" s="0" t="n"/>
+      <c r="G39" s="0" t="n"/>
+      <c r="H39" s="0" t="n"/>
+      <c r="I39" s="0" t="n"/>
+      <c r="J39" s="0" t="n"/>
+      <c r="L39" s="0" t="n"/>
+      <c r="M39" s="0" t="n"/>
+      <c r="N39" s="0" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="n"/>
+      <c r="B40" s="0" t="n"/>
+      <c r="C40" s="0" t="n"/>
+      <c r="D40" s="0" t="n"/>
+      <c r="E40" s="0" t="n"/>
+      <c r="F40" s="0" t="n"/>
+      <c r="G40" s="0" t="n"/>
+      <c r="H40" s="0" t="n"/>
+      <c r="I40" s="0" t="n"/>
+      <c r="K40" s="0" t="n"/>
+      <c r="L40" s="0" t="n"/>
+      <c r="M40" s="0" t="n"/>
+      <c r="N40" s="0" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="n"/>
+      <c r="B41" s="0" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="n"/>
+      <c r="B42" s="0" t="n"/>
+      <c r="C42" s="0" t="n"/>
+      <c r="D42" s="0" t="n"/>
+      <c r="E42" s="0" t="n"/>
+      <c r="F42" s="0" t="n"/>
+      <c r="G42" s="0" t="n"/>
+      <c r="H42" s="0" t="n"/>
+      <c r="I42" s="0" t="n"/>
+      <c r="J42" s="0" t="n"/>
+      <c r="K42" s="0" t="n"/>
+      <c r="L42" s="0" t="n"/>
+      <c r="M42" s="0" t="n"/>
+      <c r="N42" s="0" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="n"/>
+      <c r="B43" s="0" t="n"/>
+      <c r="C43" s="0" t="n"/>
+      <c r="D43" s="0" t="n"/>
+      <c r="E43" s="0" t="n"/>
+      <c r="F43" s="0" t="n"/>
+      <c r="G43" s="0" t="n"/>
+      <c r="H43" s="0" t="n"/>
+      <c r="I43" s="0" t="n"/>
+      <c r="J43" s="0" t="n"/>
+      <c r="L43" s="0" t="n"/>
+      <c r="M43" s="0" t="n"/>
+      <c r="N43" s="0" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="n"/>
+      <c r="B44" s="0" t="n"/>
+      <c r="C44" s="0" t="n"/>
+      <c r="D44" s="0" t="n"/>
+      <c r="E44" s="0" t="n"/>
+      <c r="F44" s="0" t="n"/>
+      <c r="G44" s="0" t="n"/>
+      <c r="H44" s="0" t="n"/>
+      <c r="I44" s="0" t="n"/>
+      <c r="J44" s="0" t="n"/>
+      <c r="L44" s="0" t="n"/>
+      <c r="M44" s="0" t="n"/>
+      <c r="N44" s="0" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="n"/>
+      <c r="B45" s="0" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="n"/>
+      <c r="B46" s="0" t="n"/>
+      <c r="C46" s="0" t="n"/>
+      <c r="D46" s="0" t="n"/>
+      <c r="E46" s="0" t="n"/>
+      <c r="F46" s="0" t="n"/>
+      <c r="G46" s="0" t="n"/>
+      <c r="H46" s="0" t="n"/>
+      <c r="I46" s="0" t="n"/>
+      <c r="J46" s="0" t="n"/>
+      <c r="L46" s="0" t="n"/>
+      <c r="M46" s="0" t="n"/>
+      <c r="N46" s="0" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="n"/>
+      <c r="B47" s="0" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="n"/>
+      <c r="B48" s="0" t="n"/>
+      <c r="C48" s="0" t="n"/>
+      <c r="D48" s="0" t="n"/>
+      <c r="E48" s="0" t="n"/>
+      <c r="F48" s="0" t="n"/>
+      <c r="G48" s="0" t="n"/>
+      <c r="H48" s="0" t="n"/>
+      <c r="I48" s="0" t="n"/>
+      <c r="K48" s="0" t="n"/>
+      <c r="L48" s="0" t="n"/>
+      <c r="M48" s="0" t="n"/>
+      <c r="N48" s="0" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="n"/>
+      <c r="B49" s="0" t="n"/>
+      <c r="C49" s="0" t="n"/>
+      <c r="D49" s="0" t="n"/>
+      <c r="E49" s="0" t="n"/>
+      <c r="F49" s="0" t="n"/>
+      <c r="G49" s="0" t="n"/>
+      <c r="H49" s="0" t="n"/>
+      <c r="I49" s="0" t="n"/>
+      <c r="K49" s="0" t="n"/>
+      <c r="L49" s="0" t="n"/>
+      <c r="M49" s="0" t="n"/>
+      <c r="N49" s="0" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="n"/>
+      <c r="B50" s="0" t="n"/>
+      <c r="C50" s="0" t="n"/>
+      <c r="D50" s="0" t="n"/>
+      <c r="E50" s="0" t="n"/>
+      <c r="F50" s="0" t="n"/>
+      <c r="G50" s="0" t="n"/>
+      <c r="H50" s="0" t="n"/>
+      <c r="I50" s="0" t="n"/>
+      <c r="K50" s="0" t="n"/>
+      <c r="L50" s="0" t="n"/>
+      <c r="M50" s="0" t="n"/>
+      <c r="N50" s="0" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="n"/>
+      <c r="B51" s="0" t="n"/>
+      <c r="C51" s="0" t="n"/>
+      <c r="D51" s="0" t="n"/>
+      <c r="E51" s="0" t="n"/>
+      <c r="F51" s="0" t="n"/>
+      <c r="G51" s="0" t="n"/>
+      <c r="H51" s="0" t="n"/>
+      <c r="I51" s="0" t="n"/>
+      <c r="J51" s="0" t="n"/>
+      <c r="L51" s="0" t="n"/>
+      <c r="M51" s="0" t="n"/>
+      <c r="N51" s="0" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="n"/>
+      <c r="B52" s="0" t="n"/>
+      <c r="C52" s="0" t="n"/>
+      <c r="D52" s="0" t="n"/>
+      <c r="E52" s="0" t="n"/>
+      <c r="F52" s="0" t="n"/>
+      <c r="G52" s="0" t="n"/>
+      <c r="H52" s="0" t="n"/>
+      <c r="I52" s="0" t="n"/>
+      <c r="J52" s="0" t="n"/>
+      <c r="L52" s="0" t="n"/>
+      <c r="M52" s="0" t="n"/>
+      <c r="N52" s="0" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="n"/>
+      <c r="B53" s="0" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="n"/>
+      <c r="B54" s="0" t="n"/>
+      <c r="C54" s="0" t="n"/>
+      <c r="D54" s="0" t="n"/>
+      <c r="E54" s="0" t="n"/>
+      <c r="F54" s="0" t="n"/>
+      <c r="G54" s="0" t="n"/>
+      <c r="H54" s="0" t="n"/>
+      <c r="I54" s="0" t="n"/>
+      <c r="J54" s="0" t="n"/>
+      <c r="L54" s="0" t="n"/>
+      <c r="M54" s="0" t="n"/>
+      <c r="N54" s="0" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="n"/>
+      <c r="B55" s="0" t="n"/>
+      <c r="C55" s="0" t="n"/>
+      <c r="D55" s="0" t="n"/>
+      <c r="E55" s="0" t="n"/>
+      <c r="F55" s="0" t="n"/>
+      <c r="G55" s="0" t="n"/>
+      <c r="H55" s="0" t="n"/>
+      <c r="I55" s="0" t="n"/>
+      <c r="K55" s="0" t="n"/>
+      <c r="L55" s="0" t="n"/>
+      <c r="M55" s="0" t="n"/>
+      <c r="N55" s="0" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="n"/>
+      <c r="B56" s="0" t="n"/>
+      <c r="C56" s="0" t="n"/>
+      <c r="D56" s="0" t="n"/>
+      <c r="E56" s="0" t="n"/>
+      <c r="F56" s="0" t="n"/>
+      <c r="G56" s="0" t="n"/>
+      <c r="H56" s="0" t="n"/>
+      <c r="I56" s="0" t="n"/>
+      <c r="K56" s="0" t="n"/>
+      <c r="L56" s="0" t="n"/>
+      <c r="M56" s="0" t="n"/>
+      <c r="N56" s="0" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="n"/>
+      <c r="B57" s="0" t="n"/>
+      <c r="C57" s="0" t="n"/>
+      <c r="D57" s="0" t="n"/>
+      <c r="E57" s="0" t="n"/>
+      <c r="F57" s="0" t="n"/>
+      <c r="G57" s="0" t="n"/>
+      <c r="H57" s="0" t="n"/>
+      <c r="I57" s="0" t="n"/>
+      <c r="J57" s="0" t="n"/>
+      <c r="L57" s="0" t="n"/>
+      <c r="M57" s="0" t="n"/>
+      <c r="N57" s="0" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="n"/>
+      <c r="B58" s="0" t="n"/>
+      <c r="C58" s="0" t="n"/>
+      <c r="D58" s="0" t="n"/>
+      <c r="E58" s="0" t="n"/>
+      <c r="F58" s="0" t="n"/>
+      <c r="G58" s="0" t="n"/>
+      <c r="H58" s="0" t="n"/>
+      <c r="I58" s="0" t="n"/>
+      <c r="K58" s="0" t="n"/>
+      <c r="L58" s="0" t="n"/>
+      <c r="M58" s="0" t="n"/>
+      <c r="N58" s="0" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="n"/>
+      <c r="B59" s="0" t="n"/>
+      <c r="C59" s="0" t="n"/>
+      <c r="D59" s="0" t="n"/>
+      <c r="E59" s="0" t="n"/>
+      <c r="F59" s="0" t="n"/>
+      <c r="G59" s="0" t="n"/>
+      <c r="H59" s="0" t="n"/>
+      <c r="I59" s="0" t="n"/>
+      <c r="J59" s="0" t="n"/>
+      <c r="L59" s="0" t="n"/>
+      <c r="M59" s="0" t="n"/>
+      <c r="N59" s="0" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="n"/>
+      <c r="B60" s="0" t="n"/>
+      <c r="C60" s="0" t="n"/>
+      <c r="D60" s="0" t="n"/>
+      <c r="E60" s="0" t="n"/>
+      <c r="F60" s="0" t="n"/>
+      <c r="G60" s="0" t="n"/>
+      <c r="H60" s="0" t="n"/>
+      <c r="I60" s="0" t="n"/>
+      <c r="J60" s="0" t="n"/>
+      <c r="L60" s="0" t="n"/>
+      <c r="M60" s="0" t="n"/>
+      <c r="N60" s="0" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="n"/>
+      <c r="B61" s="0" t="n"/>
+      <c r="C61" s="0" t="n"/>
+      <c r="D61" s="0" t="n"/>
+      <c r="E61" s="0" t="n"/>
+      <c r="F61" s="0" t="n"/>
+      <c r="G61" s="0" t="n"/>
+      <c r="H61" s="0" t="n"/>
+      <c r="I61" s="0" t="n"/>
+      <c r="J61" s="0" t="n"/>
+      <c r="L61" s="0" t="n"/>
+      <c r="M61" s="0" t="n"/>
+      <c r="N61" s="0" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="n"/>
+      <c r="B62" s="0" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="n"/>
+      <c r="B63" s="0" t="n"/>
+      <c r="C63" s="0" t="n"/>
+      <c r="D63" s="0" t="n"/>
+      <c r="E63" s="0" t="n"/>
+      <c r="F63" s="0" t="n"/>
+      <c r="G63" s="0" t="n"/>
+      <c r="H63" s="0" t="n"/>
+      <c r="I63" s="0" t="n"/>
+      <c r="J63" s="0" t="n"/>
+      <c r="L63" s="0" t="n"/>
+      <c r="M63" s="0" t="n"/>
+      <c r="N63" s="0" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="n"/>
+      <c r="B64" s="0" t="n"/>
+      <c r="C64" s="0" t="n"/>
+      <c r="D64" s="0" t="n"/>
+      <c r="E64" s="0" t="n"/>
+      <c r="F64" s="0" t="n"/>
+      <c r="G64" s="0" t="n"/>
+      <c r="H64" s="0" t="n"/>
+      <c r="I64" s="0" t="n"/>
+      <c r="J64" s="0" t="n"/>
+      <c r="L64" s="0" t="n"/>
+      <c r="M64" s="0" t="n"/>
+      <c r="N64" s="0" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="n"/>
+      <c r="B65" s="0" t="n"/>
+      <c r="C65" s="0" t="n"/>
+      <c r="D65" s="0" t="n"/>
+      <c r="E65" s="0" t="n"/>
+      <c r="F65" s="0" t="n"/>
+      <c r="G65" s="0" t="n"/>
+      <c r="H65" s="0" t="n"/>
+      <c r="I65" s="0" t="n"/>
+      <c r="K65" s="0" t="n"/>
+      <c r="L65" s="0" t="n"/>
+      <c r="M65" s="0" t="n"/>
+      <c r="N65" s="0" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="n"/>
+      <c r="B66" s="0" t="n"/>
+      <c r="C66" s="0" t="n"/>
+      <c r="D66" s="0" t="n"/>
+      <c r="E66" s="0" t="n"/>
+      <c r="F66" s="0" t="n"/>
+      <c r="G66" s="0" t="n"/>
+      <c r="H66" s="0" t="n"/>
+      <c r="I66" s="0" t="n"/>
+      <c r="K66" s="0" t="n"/>
+      <c r="L66" s="0" t="n"/>
+      <c r="M66" s="0" t="n"/>
+      <c r="N66" s="0" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="n"/>
+      <c r="B67" s="0" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="n"/>
+      <c r="B68" s="0" t="n"/>
+      <c r="C68" s="0" t="n"/>
+      <c r="D68" s="0" t="n"/>
+      <c r="E68" s="0" t="n"/>
+      <c r="F68" s="0" t="n"/>
+      <c r="G68" s="0" t="n"/>
+      <c r="H68" s="0" t="n"/>
+      <c r="I68" s="0" t="n"/>
+      <c r="J68" s="0" t="n"/>
+      <c r="L68" s="0" t="n"/>
+      <c r="M68" s="0" t="n"/>
+      <c r="N68" s="0" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="n"/>
+      <c r="B69" s="0" t="n"/>
+      <c r="C69" s="0" t="n"/>
+      <c r="D69" s="0" t="n"/>
+      <c r="E69" s="0" t="n"/>
+      <c r="F69" s="0" t="n"/>
+      <c r="G69" s="0" t="n"/>
+      <c r="H69" s="0" t="n"/>
+      <c r="I69" s="0" t="n"/>
+      <c r="K69" s="0" t="n"/>
+      <c r="L69" s="0" t="n"/>
+      <c r="M69" s="0" t="n"/>
+      <c r="N69" s="0" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="n"/>
+      <c r="B70" s="0" t="n"/>
+      <c r="C70" s="0" t="n"/>
+      <c r="D70" s="0" t="n"/>
+      <c r="E70" s="0" t="n"/>
+      <c r="F70" s="0" t="n"/>
+      <c r="G70" s="0" t="n"/>
+      <c r="H70" s="0" t="n"/>
+      <c r="I70" s="0" t="n"/>
+      <c r="J70" s="0" t="n"/>
+      <c r="L70" s="0" t="n"/>
+      <c r="M70" s="0" t="n"/>
+      <c r="N70" s="0" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="n"/>
+      <c r="B71" s="0" t="n"/>
+      <c r="C71" s="0" t="n"/>
+      <c r="D71" s="0" t="n"/>
+      <c r="E71" s="0" t="n"/>
+      <c r="F71" s="0" t="n"/>
+      <c r="G71" s="0" t="n"/>
+      <c r="H71" s="0" t="n"/>
+      <c r="I71" s="0" t="n"/>
+      <c r="K71" s="0" t="n"/>
+      <c r="L71" s="0" t="n"/>
+      <c r="M71" s="0" t="n"/>
+      <c r="N71" s="0" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="n"/>
+      <c r="B72" s="0" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="n"/>
+      <c r="B73" s="0" t="n"/>
+      <c r="C73" s="0" t="n"/>
+      <c r="D73" s="0" t="n"/>
+      <c r="E73" s="0" t="n"/>
+      <c r="F73" s="0" t="n"/>
+      <c r="G73" s="0" t="n"/>
+      <c r="H73" s="0" t="n"/>
+      <c r="I73" s="0" t="n"/>
+      <c r="J73" s="0" t="n"/>
+      <c r="L73" s="0" t="n"/>
+      <c r="M73" s="0" t="n"/>
+      <c r="N73" s="0" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="n"/>
+      <c r="B74" s="0" t="n"/>
+      <c r="C74" s="0" t="n"/>
+      <c r="D74" s="0" t="n"/>
+      <c r="E74" s="0" t="n"/>
+      <c r="F74" s="0" t="n"/>
+      <c r="G74" s="0" t="n"/>
+      <c r="H74" s="0" t="n"/>
+      <c r="I74" s="0" t="n"/>
+      <c r="J74" s="0" t="n"/>
+      <c r="L74" s="0" t="n"/>
+      <c r="M74" s="0" t="n"/>
+      <c r="N74" s="0" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="n"/>
+      <c r="B75" s="0" t="n"/>
+      <c r="C75" s="0" t="n"/>
+      <c r="D75" s="0" t="n"/>
+      <c r="E75" s="0" t="n"/>
+      <c r="F75" s="0" t="n"/>
+      <c r="G75" s="0" t="n"/>
+      <c r="H75" s="0" t="n"/>
+      <c r="I75" s="0" t="n"/>
+      <c r="K75" s="0" t="n"/>
+      <c r="L75" s="0" t="n"/>
+      <c r="M75" s="0" t="n"/>
+      <c r="N75" s="0" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="n"/>
+      <c r="B76" s="0" t="n"/>
+      <c r="C76" s="0" t="n"/>
+      <c r="D76" s="0" t="n"/>
+      <c r="E76" s="0" t="n"/>
+      <c r="F76" s="0" t="n"/>
+      <c r="G76" s="0" t="n"/>
+      <c r="H76" s="0" t="n"/>
+      <c r="I76" s="0" t="n"/>
+      <c r="K76" s="0" t="n"/>
+      <c r="L76" s="0" t="n"/>
+      <c r="M76" s="0" t="n"/>
+      <c r="N76" s="0" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="n"/>
+      <c r="B77" s="0" t="n"/>
+      <c r="C77" s="0" t="n"/>
+      <c r="D77" s="0" t="n"/>
+      <c r="E77" s="0" t="n"/>
+      <c r="F77" s="0" t="n"/>
+      <c r="G77" s="0" t="n"/>
+      <c r="H77" s="0" t="n"/>
+      <c r="I77" s="0" t="n"/>
+      <c r="K77" s="0" t="n"/>
+      <c r="L77" s="0" t="n"/>
+      <c r="M77" s="0" t="n"/>
+      <c r="N77" s="0" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="n"/>
+      <c r="B78" s="0" t="n"/>
+      <c r="C78" s="0" t="n"/>
+      <c r="D78" s="0" t="n"/>
+      <c r="E78" s="0" t="n"/>
+      <c r="F78" s="0" t="n"/>
+      <c r="G78" s="0" t="n"/>
+      <c r="H78" s="0" t="n"/>
+      <c r="I78" s="0" t="n"/>
+      <c r="J78" s="0" t="n"/>
+      <c r="L78" s="0" t="n"/>
+      <c r="M78" s="0" t="n"/>
+      <c r="N78" s="0" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="n"/>
+      <c r="B79" s="0" t="n"/>
+      <c r="C79" s="0" t="n"/>
+      <c r="D79" s="0" t="n"/>
+      <c r="E79" s="0" t="n"/>
+      <c r="F79" s="0" t="n"/>
+      <c r="G79" s="0" t="n"/>
+      <c r="H79" s="0" t="n"/>
+      <c r="I79" s="0" t="n"/>
+      <c r="J79" s="0" t="n"/>
+      <c r="L79" s="0" t="n"/>
+      <c r="M79" s="0" t="n"/>
+      <c r="N79" s="0" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="n"/>
+      <c r="B80" s="0" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="n"/>
+      <c r="B81" s="0" t="n"/>
+      <c r="C81" s="0" t="n"/>
+      <c r="D81" s="0" t="n"/>
+      <c r="E81" s="0" t="n"/>
+      <c r="F81" s="0" t="n"/>
+      <c r="G81" s="0" t="n"/>
+      <c r="H81" s="0" t="n"/>
+      <c r="I81" s="0" t="n"/>
+      <c r="J81" s="0" t="n"/>
+      <c r="L81" s="0" t="n"/>
+      <c r="M81" s="0" t="n"/>
+      <c r="N81" s="0" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="n"/>
+      <c r="B82" s="0" t="n"/>
+      <c r="C82" s="0" t="n"/>
+      <c r="D82" s="0" t="n"/>
+      <c r="E82" s="0" t="n"/>
+      <c r="F82" s="0" t="n"/>
+      <c r="G82" s="0" t="n"/>
+      <c r="H82" s="0" t="n"/>
+      <c r="I82" s="0" t="n"/>
+      <c r="J82" s="0" t="n"/>
+      <c r="L82" s="0" t="n"/>
+      <c r="M82" s="0" t="n"/>
+      <c r="N82" s="0" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="n"/>
+      <c r="B83" s="0" t="n"/>
+      <c r="C83" s="0" t="n"/>
+      <c r="D83" s="0" t="n"/>
+      <c r="E83" s="0" t="n"/>
+      <c r="F83" s="0" t="n"/>
+      <c r="G83" s="0" t="n"/>
+      <c r="H83" s="0" t="n"/>
+      <c r="I83" s="0" t="n"/>
+      <c r="K83" s="0" t="n"/>
+      <c r="L83" s="0" t="n"/>
+      <c r="M83" s="0" t="n"/>
+      <c r="N83" s="0" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="n"/>
+      <c r="B84" s="0" t="n"/>
+      <c r="C84" s="0" t="n"/>
+      <c r="D84" s="0" t="n"/>
+      <c r="E84" s="0" t="n"/>
+      <c r="F84" s="0" t="n"/>
+      <c r="G84" s="0" t="n"/>
+      <c r="H84" s="0" t="n"/>
+      <c r="I84" s="0" t="n"/>
+      <c r="K84" s="0" t="n"/>
+      <c r="L84" s="0" t="n"/>
+      <c r="M84" s="0" t="n"/>
+      <c r="N84" s="0" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="n"/>
+      <c r="B85" s="0" t="n"/>
+      <c r="C85" s="0" t="n"/>
+      <c r="D85" s="0" t="n"/>
+      <c r="E85" s="0" t="n"/>
+      <c r="F85" s="0" t="n"/>
+      <c r="G85" s="0" t="n"/>
+      <c r="H85" s="0" t="n"/>
+      <c r="I85" s="0" t="n"/>
+      <c r="J85" s="0" t="n"/>
+      <c r="L85" s="0" t="n"/>
+      <c r="M85" s="0" t="n"/>
+      <c r="N85" s="0" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="n"/>
+      <c r="B86" s="0" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="n"/>
+      <c r="B87" s="0" t="n"/>
+      <c r="C87" s="0" t="n"/>
+      <c r="D87" s="0" t="n"/>
+      <c r="E87" s="0" t="n"/>
+      <c r="F87" s="0" t="n"/>
+      <c r="G87" s="0" t="n"/>
+      <c r="H87" s="0" t="n"/>
+      <c r="I87" s="0" t="n"/>
+      <c r="J87" s="0" t="n"/>
+      <c r="L87" s="0" t="n"/>
+      <c r="M87" s="0" t="n"/>
+      <c r="N87" s="0" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="n"/>
+      <c r="B88" s="0" t="n"/>
+      <c r="C88" s="0" t="n"/>
+      <c r="D88" s="0" t="n"/>
+      <c r="E88" s="0" t="n"/>
+      <c r="F88" s="0" t="n"/>
+      <c r="G88" s="0" t="n"/>
+      <c r="H88" s="0" t="n"/>
+      <c r="I88" s="0" t="n"/>
+      <c r="J88" s="0" t="n"/>
+      <c r="L88" s="0" t="n"/>
+      <c r="M88" s="0" t="n"/>
+      <c r="N88" s="0" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="n"/>
+      <c r="B89" s="0" t="n"/>
+      <c r="C89" s="0" t="n"/>
+      <c r="D89" s="0" t="n"/>
+      <c r="E89" s="0" t="n"/>
+      <c r="F89" s="0" t="n"/>
+      <c r="G89" s="0" t="n"/>
+      <c r="H89" s="0" t="n"/>
+      <c r="I89" s="0" t="n"/>
+      <c r="J89" s="0" t="n"/>
+      <c r="L89" s="0" t="n"/>
+      <c r="M89" s="0" t="n"/>
+      <c r="N89" s="0" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="n"/>
+      <c r="B90" s="0" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="n"/>
+      <c r="B91" s="0" t="n"/>
+      <c r="C91" s="0" t="n"/>
+      <c r="D91" s="0" t="n"/>
+      <c r="E91" s="0" t="n"/>
+      <c r="F91" s="0" t="n"/>
+      <c r="G91" s="0" t="n"/>
+      <c r="H91" s="0" t="n"/>
+      <c r="I91" s="0" t="n"/>
+      <c r="J91" s="0" t="n"/>
+      <c r="L91" s="0" t="n"/>
+      <c r="M91" s="0" t="n"/>
+      <c r="N91" s="0" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="n"/>
+      <c r="B92" s="0" t="n"/>
+      <c r="C92" s="0" t="n"/>
+      <c r="D92" s="0" t="n"/>
+      <c r="E92" s="0" t="n"/>
+      <c r="F92" s="0" t="n"/>
+      <c r="G92" s="0" t="n"/>
+      <c r="H92" s="0" t="n"/>
+      <c r="I92" s="0" t="n"/>
+      <c r="J92" s="0" t="n"/>
+      <c r="L92" s="0" t="n"/>
+      <c r="M92" s="0" t="n"/>
+      <c r="N92" s="0" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="n"/>
+      <c r="B93" s="0" t="n"/>
+      <c r="C93" s="0" t="n"/>
+      <c r="D93" s="0" t="n"/>
+      <c r="E93" s="0" t="n"/>
+      <c r="F93" s="0" t="n"/>
+      <c r="G93" s="0" t="n"/>
+      <c r="H93" s="0" t="n"/>
+      <c r="I93" s="0" t="n"/>
+      <c r="K93" s="0" t="n"/>
+      <c r="L93" s="0" t="n"/>
+      <c r="M93" s="0" t="n"/>
+      <c r="N93" s="0" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="n"/>
+      <c r="B94" s="0" t="n"/>
+      <c r="C94" s="0" t="n"/>
+      <c r="D94" s="0" t="n"/>
+      <c r="E94" s="0" t="n"/>
+      <c r="F94" s="0" t="n"/>
+      <c r="G94" s="0" t="n"/>
+      <c r="H94" s="0" t="n"/>
+      <c r="I94" s="0" t="n"/>
+      <c r="J94" s="0" t="n"/>
+      <c r="L94" s="0" t="n"/>
+      <c r="M94" s="0" t="n"/>
+      <c r="N94" s="0" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="n"/>
+      <c r="B95" s="0" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="n"/>
+      <c r="B96" s="0" t="n"/>
+      <c r="C96" s="0" t="n"/>
+      <c r="D96" s="0" t="n"/>
+      <c r="E96" s="0" t="n"/>
+      <c r="F96" s="0" t="n"/>
+      <c r="G96" s="0" t="n"/>
+      <c r="H96" s="0" t="n"/>
+      <c r="I96" s="0" t="n"/>
+      <c r="J96" s="0" t="n"/>
+      <c r="L96" s="0" t="n"/>
+      <c r="M96" s="0" t="n"/>
+      <c r="N96" s="0" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="n"/>
+      <c r="B97" s="0" t="n"/>
+      <c r="C97" s="0" t="n"/>
+      <c r="D97" s="0" t="n"/>
+      <c r="E97" s="0" t="n"/>
+      <c r="F97" s="0" t="n"/>
+      <c r="G97" s="0" t="n"/>
+      <c r="H97" s="0" t="n"/>
+      <c r="I97" s="0" t="n"/>
+      <c r="J97" s="0" t="n"/>
+      <c r="L97" s="0" t="n"/>
+      <c r="M97" s="0" t="n"/>
+      <c r="N97" s="0" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="n"/>
+      <c r="B98" s="0" t="n"/>
+      <c r="C98" s="0" t="n"/>
+      <c r="D98" s="0" t="n"/>
+      <c r="E98" s="0" t="n"/>
+      <c r="F98" s="0" t="n"/>
+      <c r="G98" s="0" t="n"/>
+      <c r="H98" s="0" t="n"/>
+      <c r="I98" s="0" t="n"/>
+      <c r="K98" s="0" t="n"/>
+      <c r="L98" s="0" t="n"/>
+      <c r="M98" s="0" t="n"/>
+      <c r="N98" s="0" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="n"/>
+      <c r="B99" s="0" t="n"/>
+      <c r="C99" s="0" t="n"/>
+      <c r="D99" s="0" t="n"/>
+      <c r="E99" s="0" t="n"/>
+      <c r="F99" s="0" t="n"/>
+      <c r="G99" s="0" t="n"/>
+      <c r="H99" s="0" t="n"/>
+      <c r="I99" s="0" t="n"/>
+      <c r="J99" s="0" t="n"/>
+      <c r="L99" s="0" t="n"/>
+      <c r="M99" s="0" t="n"/>
+      <c r="N99" s="0" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="n"/>
+      <c r="B100" s="0" t="n"/>
+      <c r="C100" s="0" t="n"/>
+      <c r="D100" s="0" t="n"/>
+      <c r="E100" s="0" t="n"/>
+      <c r="F100" s="0" t="n"/>
+      <c r="G100" s="0" t="n"/>
+      <c r="H100" s="0" t="n"/>
+      <c r="I100" s="0" t="n"/>
+      <c r="K100" s="0" t="n"/>
+      <c r="L100" s="0" t="n"/>
+      <c r="M100" s="0" t="n"/>
+      <c r="N100" s="0" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="n"/>
+      <c r="B101" s="0" t="n"/>
+      <c r="C101" s="0" t="n"/>
+      <c r="D101" s="0" t="n"/>
+      <c r="E101" s="0" t="n"/>
+      <c r="F101" s="0" t="n"/>
+      <c r="G101" s="0" t="n"/>
+      <c r="H101" s="0" t="n"/>
+      <c r="I101" s="0" t="n"/>
+      <c r="K101" s="0" t="n"/>
+      <c r="L101" s="0" t="n"/>
+      <c r="M101" s="0" t="n"/>
+      <c r="N101" s="0" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="n"/>
+      <c r="B102" s="0" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="n"/>
+      <c r="B103" s="0" t="n"/>
+      <c r="C103" s="0" t="n"/>
+      <c r="D103" s="0" t="n"/>
+      <c r="E103" s="0" t="n"/>
+      <c r="F103" s="0" t="n"/>
+      <c r="G103" s="0" t="n"/>
+      <c r="H103" s="0" t="n"/>
+      <c r="I103" s="0" t="n"/>
+      <c r="K103" s="0" t="n"/>
+      <c r="L103" s="0" t="n"/>
+      <c r="M103" s="0" t="n"/>
+      <c r="N103" s="0" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="n"/>
+      <c r="B104" s="0" t="n"/>
+      <c r="C104" s="0" t="n"/>
+      <c r="D104" s="0" t="n"/>
+      <c r="E104" s="0" t="n"/>
+      <c r="F104" s="0" t="n"/>
+      <c r="G104" s="0" t="n"/>
+      <c r="H104" s="0" t="n"/>
+      <c r="I104" s="0" t="n"/>
+      <c r="K104" s="0" t="n"/>
+      <c r="L104" s="0" t="n"/>
+      <c r="M104" s="0" t="n"/>
+      <c r="N104" s="0" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="n"/>
+      <c r="B105" s="0" t="n"/>
+      <c r="C105" s="0" t="n"/>
+      <c r="D105" s="0" t="n"/>
+      <c r="E105" s="0" t="n"/>
+      <c r="F105" s="0" t="n"/>
+      <c r="G105" s="0" t="n"/>
+      <c r="H105" s="0" t="n"/>
+      <c r="I105" s="0" t="n"/>
+      <c r="J105" s="0" t="n"/>
+      <c r="L105" s="0" t="n"/>
+      <c r="M105" s="0" t="n"/>
+      <c r="N105" s="0" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="n"/>
+      <c r="B106" s="0" t="n"/>
+      <c r="C106" s="0" t="n"/>
+      <c r="D106" s="0" t="n"/>
+      <c r="E106" s="0" t="n"/>
+      <c r="F106" s="0" t="n"/>
+      <c r="G106" s="0" t="n"/>
+      <c r="H106" s="0" t="n"/>
+      <c r="I106" s="0" t="n"/>
+      <c r="J106" s="0" t="n"/>
+      <c r="L106" s="0" t="n"/>
+      <c r="M106" s="0" t="n"/>
+      <c r="N106" s="0" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="n"/>
+      <c r="B107" s="0" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="n"/>
+      <c r="B108" s="0" t="n"/>
+      <c r="C108" s="0" t="n"/>
+      <c r="D108" s="0" t="n"/>
+      <c r="E108" s="0" t="n"/>
+      <c r="F108" s="0" t="n"/>
+      <c r="G108" s="0" t="n"/>
+      <c r="H108" s="0" t="n"/>
+      <c r="I108" s="0" t="n"/>
+      <c r="J108" s="0" t="n"/>
+      <c r="L108" s="0" t="n"/>
+      <c r="M108" s="0" t="n"/>
+      <c r="N108" s="0" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="n"/>
+      <c r="B109" s="0" t="n"/>
+      <c r="C109" s="0" t="n"/>
+      <c r="D109" s="0" t="n"/>
+      <c r="E109" s="0" t="n"/>
+      <c r="F109" s="0" t="n"/>
+      <c r="G109" s="0" t="n"/>
+      <c r="H109" s="0" t="n"/>
+      <c r="I109" s="0" t="n"/>
+      <c r="K109" s="0" t="n"/>
+      <c r="L109" s="0" t="n"/>
+      <c r="M109" s="0" t="n"/>
+      <c r="N109" s="0" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="n"/>
+      <c r="B110" s="0" t="n"/>
+      <c r="C110" s="0" t="n"/>
+      <c r="D110" s="0" t="n"/>
+      <c r="E110" s="0" t="n"/>
+      <c r="F110" s="0" t="n"/>
+      <c r="G110" s="0" t="n"/>
+      <c r="H110" s="0" t="n"/>
+      <c r="I110" s="0" t="n"/>
+      <c r="J110" s="0" t="n"/>
+      <c r="L110" s="0" t="n"/>
+      <c r="M110" s="0" t="n"/>
+      <c r="N110" s="0" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="n"/>
+      <c r="B111" s="0" t="n"/>
+      <c r="C111" s="0" t="n"/>
+      <c r="D111" s="0" t="n"/>
+      <c r="E111" s="0" t="n"/>
+      <c r="F111" s="0" t="n"/>
+      <c r="G111" s="0" t="n"/>
+      <c r="H111" s="0" t="n"/>
+      <c r="I111" s="0" t="n"/>
+      <c r="K111" s="0" t="n"/>
+      <c r="L111" s="0" t="n"/>
+      <c r="M111" s="0" t="n"/>
+      <c r="N111" s="0" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="n"/>
+      <c r="B112" s="0" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="n"/>
+      <c r="B113" s="0" t="n"/>
+      <c r="C113" s="0" t="n"/>
+      <c r="D113" s="0" t="n"/>
+      <c r="E113" s="0" t="n"/>
+      <c r="F113" s="0" t="n"/>
+      <c r="G113" s="0" t="n"/>
+      <c r="H113" s="0" t="n"/>
+      <c r="I113" s="0" t="n"/>
+      <c r="K113" s="0" t="n"/>
+      <c r="L113" s="0" t="n"/>
+      <c r="M113" s="0" t="n"/>
+      <c r="N113" s="0" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="n"/>
+      <c r="B114" s="0" t="n"/>
+      <c r="C114" s="0" t="n"/>
+      <c r="D114" s="0" t="n"/>
+      <c r="E114" s="0" t="n"/>
+      <c r="F114" s="0" t="n"/>
+      <c r="G114" s="0" t="n"/>
+      <c r="H114" s="0" t="n"/>
+      <c r="I114" s="0" t="n"/>
+      <c r="K114" s="0" t="n"/>
+      <c r="L114" s="0" t="n"/>
+      <c r="M114" s="0" t="n"/>
+      <c r="N114" s="0" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="n"/>
+      <c r="B115" s="0" t="n"/>
+      <c r="C115" s="0" t="n"/>
+      <c r="D115" s="0" t="n"/>
+      <c r="E115" s="0" t="n"/>
+      <c r="F115" s="0" t="n"/>
+      <c r="G115" s="0" t="n"/>
+      <c r="H115" s="0" t="n"/>
+      <c r="I115" s="0" t="n"/>
+      <c r="J115" s="0" t="n"/>
+      <c r="L115" s="0" t="n"/>
+      <c r="M115" s="0" t="n"/>
+      <c r="N115" s="0" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="n"/>
+      <c r="B116" s="0" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="n"/>
+      <c r="B117" s="0" t="n"/>
+      <c r="C117" s="0" t="n"/>
+      <c r="D117" s="0" t="n"/>
+      <c r="E117" s="0" t="n"/>
+      <c r="F117" s="0" t="n"/>
+      <c r="G117" s="0" t="n"/>
+      <c r="H117" s="0" t="n"/>
+      <c r="I117" s="0" t="n"/>
+      <c r="J117" s="0" t="n"/>
+      <c r="L117" s="0" t="n"/>
+      <c r="M117" s="0" t="n"/>
+      <c r="N117" s="0" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="n"/>
+      <c r="B118" s="0" t="n"/>
+      <c r="C118" s="0" t="n"/>
+      <c r="D118" s="0" t="n"/>
+      <c r="E118" s="0" t="n"/>
+      <c r="F118" s="0" t="n"/>
+      <c r="G118" s="0" t="n"/>
+      <c r="H118" s="0" t="n"/>
+      <c r="I118" s="0" t="n"/>
+      <c r="J118" s="0" t="n"/>
+      <c r="K118" s="0" t="n"/>
+      <c r="L118" s="0" t="n"/>
+      <c r="M118" s="0" t="n"/>
+      <c r="N118" s="0" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="n"/>
+      <c r="B119" s="0" t="n"/>
+      <c r="C119" s="0" t="n"/>
+      <c r="D119" s="0" t="n"/>
+      <c r="E119" s="0" t="n"/>
+      <c r="F119" s="0" t="n"/>
+      <c r="G119" s="0" t="n"/>
+      <c r="H119" s="0" t="n"/>
+      <c r="I119" s="0" t="n"/>
+      <c r="K119" s="0" t="n"/>
+      <c r="L119" s="0" t="n"/>
+      <c r="M119" s="0" t="n"/>
+      <c r="N119" s="0" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="n"/>
+      <c r="B120" s="0" t="n"/>
+      <c r="C120" s="0" t="n"/>
+      <c r="D120" s="0" t="n"/>
+      <c r="E120" s="0" t="n"/>
+      <c r="F120" s="0" t="n"/>
+      <c r="G120" s="0" t="n"/>
+      <c r="H120" s="0" t="n"/>
+      <c r="I120" s="0" t="n"/>
+      <c r="J120" s="0" t="n"/>
+      <c r="L120" s="0" t="n"/>
+      <c r="M120" s="0" t="n"/>
+      <c r="N120" s="0" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="n"/>
+      <c r="B121" s="0" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="n"/>
+      <c r="B122" s="0" t="n"/>
+      <c r="C122" s="0" t="n"/>
+      <c r="D122" s="0" t="n"/>
+      <c r="E122" s="0" t="n"/>
+      <c r="F122" s="0" t="n"/>
+      <c r="G122" s="0" t="n"/>
+      <c r="H122" s="0" t="n"/>
+      <c r="I122" s="0" t="n"/>
+      <c r="K122" s="0" t="n"/>
+      <c r="L122" s="0" t="n"/>
+      <c r="M122" s="0" t="n"/>
+      <c r="N122" s="0" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="n"/>
+      <c r="B123" s="0" t="n"/>
+      <c r="C123" s="0" t="n"/>
+      <c r="D123" s="0" t="n"/>
+      <c r="E123" s="0" t="n"/>
+      <c r="F123" s="0" t="n"/>
+      <c r="G123" s="0" t="n"/>
+      <c r="H123" s="0" t="n"/>
+      <c r="I123" s="0" t="n"/>
+      <c r="J123" s="0" t="n"/>
+      <c r="L123" s="0" t="n"/>
+      <c r="M123" s="0" t="n"/>
+      <c r="N123" s="0" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="n"/>
+      <c r="B124" s="0" t="n"/>
+      <c r="C124" s="0" t="n"/>
+      <c r="D124" s="0" t="n"/>
+      <c r="E124" s="0" t="n"/>
+      <c r="F124" s="0" t="n"/>
+      <c r="G124" s="0" t="n"/>
+      <c r="H124" s="0" t="n"/>
+      <c r="I124" s="0" t="n"/>
+      <c r="K124" s="0" t="n"/>
+      <c r="L124" s="0" t="n"/>
+      <c r="M124" s="0" t="n"/>
+      <c r="N124" s="0" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="n"/>
+      <c r="B125" s="0" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="n"/>
+      <c r="B126" s="0" t="n"/>
+      <c r="C126" s="0" t="n"/>
+      <c r="D126" s="0" t="n"/>
+      <c r="E126" s="0" t="n"/>
+      <c r="F126" s="0" t="n"/>
+      <c r="G126" s="0" t="n"/>
+      <c r="H126" s="0" t="n"/>
+      <c r="I126" s="0" t="n"/>
+      <c r="J126" s="0" t="n"/>
+      <c r="L126" s="0" t="n"/>
+      <c r="M126" s="0" t="n"/>
+      <c r="N126" s="0" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="n"/>
+      <c r="B127" s="0" t="n"/>
+      <c r="C127" s="0" t="n"/>
+      <c r="D127" s="0" t="n"/>
+      <c r="E127" s="0" t="n"/>
+      <c r="F127" s="0" t="n"/>
+      <c r="G127" s="0" t="n"/>
+      <c r="H127" s="0" t="n"/>
+      <c r="I127" s="0" t="n"/>
+      <c r="J127" s="0" t="n"/>
+      <c r="L127" s="0" t="n"/>
+      <c r="M127" s="0" t="n"/>
+      <c r="N127" s="0" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="n"/>
+      <c r="B128" s="0" t="n"/>
+      <c r="C128" s="0" t="n"/>
+      <c r="D128" s="0" t="n"/>
+      <c r="E128" s="0" t="n"/>
+      <c r="F128" s="0" t="n"/>
+      <c r="G128" s="0" t="n"/>
+      <c r="H128" s="0" t="n"/>
+      <c r="I128" s="0" t="n"/>
+      <c r="K128" s="0" t="n"/>
+      <c r="L128" s="0" t="n"/>
+      <c r="M128" s="0" t="n"/>
+      <c r="N128" s="0" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="n"/>
+      <c r="B129" s="0" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="n"/>
+      <c r="B130" s="0" t="n"/>
+      <c r="C130" s="0" t="n"/>
+      <c r="D130" s="0" t="n"/>
+      <c r="E130" s="0" t="n"/>
+      <c r="F130" s="0" t="n"/>
+      <c r="G130" s="0" t="n"/>
+      <c r="H130" s="0" t="n"/>
+      <c r="I130" s="0" t="n"/>
+      <c r="J130" s="0" t="n"/>
+      <c r="L130" s="0" t="n"/>
+      <c r="M130" s="0" t="n"/>
+      <c r="N130" s="0" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="n"/>
+      <c r="B131" s="0" t="n"/>
+      <c r="C131" s="0" t="n"/>
+      <c r="D131" s="0" t="n"/>
+      <c r="E131" s="0" t="n"/>
+      <c r="F131" s="0" t="n"/>
+      <c r="G131" s="0" t="n"/>
+      <c r="H131" s="0" t="n"/>
+      <c r="I131" s="0" t="n"/>
+      <c r="J131" s="0" t="n"/>
+      <c r="L131" s="0" t="n"/>
+      <c r="M131" s="0" t="n"/>
+      <c r="N131" s="0" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="n"/>
+      <c r="B132" s="0" t="n"/>
+      <c r="C132" s="0" t="n"/>
+      <c r="D132" s="0" t="n"/>
+      <c r="E132" s="0" t="n"/>
+      <c r="F132" s="0" t="n"/>
+      <c r="G132" s="0" t="n"/>
+      <c r="H132" s="0" t="n"/>
+      <c r="I132" s="0" t="n"/>
+      <c r="J132" s="0" t="n"/>
+      <c r="L132" s="0" t="n"/>
+      <c r="M132" s="0" t="n"/>
+      <c r="N132" s="0" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="n"/>
+      <c r="B133" s="0" t="n"/>
+      <c r="C133" s="0" t="n"/>
+      <c r="D133" s="0" t="n"/>
+      <c r="E133" s="0" t="n"/>
+      <c r="F133" s="0" t="n"/>
+      <c r="G133" s="0" t="n"/>
+      <c r="H133" s="0" t="n"/>
+      <c r="I133" s="0" t="n"/>
+      <c r="K133" s="0" t="n"/>
+      <c r="L133" s="0" t="n"/>
+      <c r="M133" s="0" t="n"/>
+      <c r="N133" s="0" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="n"/>
+      <c r="B134" s="0" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="n"/>
+      <c r="B135" s="0" t="n"/>
+      <c r="C135" s="0" t="n"/>
+      <c r="D135" s="0" t="n"/>
+      <c r="E135" s="0" t="n"/>
+      <c r="F135" s="0" t="n"/>
+      <c r="G135" s="0" t="n"/>
+      <c r="H135" s="0" t="n"/>
+      <c r="I135" s="0" t="n"/>
+      <c r="J135" s="0" t="n"/>
+      <c r="L135" s="0" t="n"/>
+      <c r="M135" s="0" t="n"/>
+      <c r="N135" s="0" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="n"/>
+      <c r="B136" s="0" t="n"/>
+      <c r="C136" s="0" t="n"/>
+      <c r="D136" s="0" t="n"/>
+      <c r="E136" s="0" t="n"/>
+      <c r="F136" s="0" t="n"/>
+      <c r="G136" s="0" t="n"/>
+      <c r="H136" s="0" t="n"/>
+      <c r="I136" s="0" t="n"/>
+      <c r="J136" s="0" t="n"/>
+      <c r="L136" s="0" t="n"/>
+      <c r="M136" s="0" t="n"/>
+      <c r="N136" s="0" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="n"/>
+      <c r="B137" s="0" t="n"/>
+      <c r="C137" s="0" t="n"/>
+      <c r="D137" s="0" t="n"/>
+      <c r="E137" s="0" t="n"/>
+      <c r="F137" s="0" t="n"/>
+      <c r="G137" s="0" t="n"/>
+      <c r="H137" s="0" t="n"/>
+      <c r="I137" s="0" t="n"/>
+      <c r="J137" s="0" t="n"/>
+      <c r="L137" s="0" t="n"/>
+      <c r="M137" s="0" t="n"/>
+      <c r="N137" s="0" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="n"/>
+      <c r="B138" s="0" t="n"/>
+      <c r="C138" s="0" t="n"/>
+      <c r="D138" s="0" t="n"/>
+      <c r="E138" s="0" t="n"/>
+      <c r="F138" s="0" t="n"/>
+      <c r="G138" s="0" t="n"/>
+      <c r="H138" s="0" t="n"/>
+      <c r="I138" s="0" t="n"/>
+      <c r="K138" s="0" t="n"/>
+      <c r="L138" s="0" t="n"/>
+      <c r="M138" s="0" t="n"/>
+      <c r="N138" s="0" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="n"/>
+      <c r="B139" s="0" t="n"/>
+      <c r="C139" s="0" t="n"/>
+      <c r="D139" s="0" t="n"/>
+      <c r="E139" s="0" t="n"/>
+      <c r="F139" s="0" t="n"/>
+      <c r="G139" s="0" t="n"/>
+      <c r="H139" s="0" t="n"/>
+      <c r="I139" s="0" t="n"/>
+      <c r="K139" s="0" t="n"/>
+      <c r="L139" s="0" t="n"/>
+      <c r="M139" s="0" t="n"/>
+      <c r="N139" s="0" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="n"/>
+      <c r="B140" s="0" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="n"/>
+      <c r="B141" s="0" t="n"/>
+      <c r="C141" s="0" t="n"/>
+      <c r="D141" s="0" t="n"/>
+      <c r="E141" s="0" t="n"/>
+      <c r="F141" s="0" t="n"/>
+      <c r="G141" s="0" t="n"/>
+      <c r="H141" s="0" t="n"/>
+      <c r="I141" s="0" t="n"/>
+      <c r="K141" s="0" t="n"/>
+      <c r="L141" s="0" t="n"/>
+      <c r="M141" s="0" t="n"/>
+      <c r="N141" s="0" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="n"/>
+      <c r="B142" s="0" t="n"/>
+      <c r="C142" s="0" t="n"/>
+      <c r="D142" s="0" t="n"/>
+      <c r="E142" s="0" t="n"/>
+      <c r="F142" s="0" t="n"/>
+      <c r="G142" s="0" t="n"/>
+      <c r="H142" s="0" t="n"/>
+      <c r="I142" s="0" t="n"/>
+      <c r="K142" s="0" t="n"/>
+      <c r="L142" s="0" t="n"/>
+      <c r="M142" s="0" t="n"/>
+      <c r="N142" s="0" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="n"/>
+      <c r="B143" s="0" t="n"/>
+      <c r="C143" s="0" t="n"/>
+      <c r="D143" s="0" t="n"/>
+      <c r="E143" s="0" t="n"/>
+      <c r="F143" s="0" t="n"/>
+      <c r="G143" s="0" t="n"/>
+      <c r="H143" s="0" t="n"/>
+      <c r="I143" s="0" t="n"/>
+      <c r="J143" s="0" t="n"/>
+      <c r="L143" s="0" t="n"/>
+      <c r="M143" s="0" t="n"/>
+      <c r="N143" s="0" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="n"/>
+      <c r="B144" s="0" t="n"/>
+      <c r="C144" s="0" t="n"/>
+      <c r="D144" s="0" t="n"/>
+      <c r="E144" s="0" t="n"/>
+      <c r="F144" s="0" t="n"/>
+      <c r="G144" s="0" t="n"/>
+      <c r="H144" s="0" t="n"/>
+      <c r="I144" s="0" t="n"/>
+      <c r="J144" s="0" t="n"/>
+      <c r="L144" s="0" t="n"/>
+      <c r="M144" s="0" t="n"/>
+      <c r="N144" s="0" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="n"/>
+      <c r="B145" s="0" t="n"/>
+      <c r="C145" s="0" t="n"/>
+      <c r="D145" s="0" t="n"/>
+      <c r="E145" s="0" t="n"/>
+      <c r="F145" s="0" t="n"/>
+      <c r="G145" s="0" t="n"/>
+      <c r="H145" s="0" t="n"/>
+      <c r="I145" s="0" t="n"/>
+      <c r="J145" s="0" t="n"/>
+      <c r="L145" s="0" t="n"/>
+      <c r="M145" s="0" t="n"/>
+      <c r="N145" s="0" t="n"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="n"/>
+      <c r="B146" s="0" t="n"/>
+      <c r="C146" s="0" t="n"/>
+      <c r="D146" s="0" t="n"/>
+      <c r="E146" s="0" t="n"/>
+      <c r="F146" s="0" t="n"/>
+      <c r="G146" s="0" t="n"/>
+      <c r="H146" s="0" t="n"/>
+      <c r="I146" s="0" t="n"/>
+      <c r="K146" s="0" t="n"/>
+      <c r="L146" s="0" t="n"/>
+      <c r="M146" s="0" t="n"/>
+      <c r="N146" s="0" t="n"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="n"/>
+      <c r="B147" s="0" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="n"/>
+      <c r="B148" s="0" t="n"/>
+      <c r="C148" s="0" t="n"/>
+      <c r="D148" s="0" t="n"/>
+      <c r="E148" s="0" t="n"/>
+      <c r="F148" s="0" t="n"/>
+      <c r="G148" s="0" t="n"/>
+      <c r="H148" s="0" t="n"/>
+      <c r="I148" s="0" t="n"/>
+      <c r="J148" s="0" t="n"/>
+      <c r="L148" s="0" t="n"/>
+      <c r="M148" s="0" t="n"/>
+      <c r="N148" s="0" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="n"/>
+      <c r="B149" s="0" t="n"/>
+      <c r="C149" s="0" t="n"/>
+      <c r="D149" s="0" t="n"/>
+      <c r="E149" s="0" t="n"/>
+      <c r="F149" s="0" t="n"/>
+      <c r="G149" s="0" t="n"/>
+      <c r="H149" s="0" t="n"/>
+      <c r="I149" s="0" t="n"/>
+      <c r="K149" s="0" t="n"/>
+      <c r="L149" s="0" t="n"/>
+      <c r="M149" s="0" t="n"/>
+      <c r="N149" s="0" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="n"/>
+      <c r="B150" s="0" t="n"/>
+      <c r="C150" s="0" t="n"/>
+      <c r="D150" s="0" t="n"/>
+      <c r="E150" s="0" t="n"/>
+      <c r="F150" s="0" t="n"/>
+      <c r="G150" s="0" t="n"/>
+      <c r="H150" s="0" t="n"/>
+      <c r="I150" s="0" t="n"/>
+      <c r="J150" s="0" t="n"/>
+      <c r="L150" s="0" t="n"/>
+      <c r="M150" s="0" t="n"/>
+      <c r="N150" s="0" t="n"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="n"/>
+      <c r="B151" s="0" t="n"/>
+      <c r="C151" s="0" t="n"/>
+      <c r="D151" s="0" t="n"/>
+      <c r="E151" s="0" t="n"/>
+      <c r="F151" s="0" t="n"/>
+      <c r="G151" s="0" t="n"/>
+      <c r="H151" s="0" t="n"/>
+      <c r="I151" s="0" t="n"/>
+      <c r="J151" s="0" t="n"/>
+      <c r="L151" s="0" t="n"/>
+      <c r="M151" s="0" t="n"/>
+      <c r="N151" s="0" t="n"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="n"/>
+      <c r="B152" s="0" t="n"/>
+      <c r="C152" s="0" t="n"/>
+      <c r="D152" s="0" t="n"/>
+      <c r="E152" s="0" t="n"/>
+      <c r="F152" s="0" t="n"/>
+      <c r="G152" s="0" t="n"/>
+      <c r="H152" s="0" t="n"/>
+      <c r="I152" s="0" t="n"/>
+      <c r="K152" s="0" t="n"/>
+      <c r="L152" s="0" t="n"/>
+      <c r="M152" s="0" t="n"/>
+      <c r="N152" s="0" t="n"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="n"/>
+      <c r="B153" s="0" t="n"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="n"/>
+      <c r="B154" s="0" t="n"/>
+      <c r="C154" s="0" t="n"/>
+      <c r="D154" s="0" t="n"/>
+      <c r="E154" s="0" t="n"/>
+      <c r="F154" s="0" t="n"/>
+      <c r="G154" s="0" t="n"/>
+      <c r="H154" s="0" t="n"/>
+      <c r="I154" s="0" t="n"/>
+      <c r="J154" s="0" t="n"/>
+      <c r="L154" s="0" t="n"/>
+      <c r="M154" s="0" t="n"/>
+      <c r="N154" s="0" t="n"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="n"/>
+      <c r="B155" s="0" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="n"/>
+      <c r="B156" s="0" t="n"/>
+      <c r="C156" s="0" t="n"/>
+      <c r="D156" s="0" t="n"/>
+      <c r="E156" s="0" t="n"/>
+      <c r="F156" s="0" t="n"/>
+      <c r="G156" s="0" t="n"/>
+      <c r="H156" s="0" t="n"/>
+      <c r="I156" s="0" t="n"/>
+      <c r="J156" s="0" t="n"/>
+      <c r="L156" s="0" t="n"/>
+      <c r="M156" s="0" t="n"/>
+      <c r="N156" s="0" t="n"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="n"/>
+      <c r="B157" s="0" t="n"/>
+      <c r="C157" s="0" t="n"/>
+      <c r="D157" s="0" t="n"/>
+      <c r="E157" s="0" t="n"/>
+      <c r="F157" s="0" t="n"/>
+      <c r="G157" s="0" t="n"/>
+      <c r="H157" s="0" t="n"/>
+      <c r="I157" s="0" t="n"/>
+      <c r="J157" s="0" t="n"/>
+      <c r="L157" s="0" t="n"/>
+      <c r="M157" s="0" t="n"/>
+      <c r="N157" s="0" t="n"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="n"/>
+      <c r="B158" s="0" t="n"/>
+      <c r="C158" s="0" t="n"/>
+      <c r="D158" s="0" t="n"/>
+      <c r="E158" s="0" t="n"/>
+      <c r="F158" s="0" t="n"/>
+      <c r="G158" s="0" t="n"/>
+      <c r="H158" s="0" t="n"/>
+      <c r="I158" s="0" t="n"/>
+      <c r="K158" s="0" t="n"/>
+      <c r="L158" s="0" t="n"/>
+      <c r="M158" s="0" t="n"/>
+      <c r="N158" s="0" t="n"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="n"/>
+      <c r="B159" s="0" t="n"/>
+      <c r="C159" s="0" t="n"/>
+      <c r="D159" s="0" t="n"/>
+      <c r="E159" s="0" t="n"/>
+      <c r="F159" s="0" t="n"/>
+      <c r="G159" s="0" t="n"/>
+      <c r="H159" s="0" t="n"/>
+      <c r="I159" s="0" t="n"/>
+      <c r="J159" s="0" t="n"/>
+      <c r="L159" s="0" t="n"/>
+      <c r="M159" s="0" t="n"/>
+      <c r="N159" s="0" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="n"/>
+      <c r="B160" s="0" t="n"/>
+      <c r="C160" s="0" t="n"/>
+      <c r="D160" s="0" t="n"/>
+      <c r="E160" s="0" t="n"/>
+      <c r="F160" s="0" t="n"/>
+      <c r="G160" s="0" t="n"/>
+      <c r="H160" s="0" t="n"/>
+      <c r="I160" s="0" t="n"/>
+      <c r="J160" s="0" t="n"/>
+      <c r="K160" s="0" t="n"/>
+      <c r="L160" s="0" t="n"/>
+      <c r="M160" s="0" t="n"/>
+      <c r="N160" s="0" t="n"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="n"/>
+      <c r="B161" s="0" t="n"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="n"/>
+      <c r="B162" s="0" t="n"/>
+      <c r="C162" s="0" t="n"/>
+      <c r="D162" s="0" t="n"/>
+      <c r="E162" s="0" t="n"/>
+      <c r="F162" s="0" t="n"/>
+      <c r="G162" s="0" t="n"/>
+      <c r="H162" s="0" t="n"/>
+      <c r="I162" s="0" t="n"/>
+      <c r="K162" s="0" t="n"/>
+      <c r="L162" s="0" t="n"/>
+      <c r="M162" s="0" t="n"/>
+      <c r="N162" s="0" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="n"/>
+      <c r="B163" s="0" t="n"/>
+      <c r="C163" s="0" t="n"/>
+      <c r="D163" s="0" t="n"/>
+      <c r="E163" s="0" t="n"/>
+      <c r="F163" s="0" t="n"/>
+      <c r="G163" s="0" t="n"/>
+      <c r="H163" s="0" t="n"/>
+      <c r="I163" s="0" t="n"/>
+      <c r="J163" s="0" t="n"/>
+      <c r="L163" s="0" t="n"/>
+      <c r="M163" s="0" t="n"/>
+      <c r="N163" s="0" t="n"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="n"/>
+      <c r="B164" s="0" t="n"/>
+      <c r="C164" s="0" t="n"/>
+      <c r="D164" s="0" t="n"/>
+      <c r="E164" s="0" t="n"/>
+      <c r="F164" s="0" t="n"/>
+      <c r="G164" s="0" t="n"/>
+      <c r="H164" s="0" t="n"/>
+      <c r="I164" s="0" t="n"/>
+      <c r="J164" s="0" t="n"/>
+      <c r="L164" s="0" t="n"/>
+      <c r="M164" s="0" t="n"/>
+      <c r="N164" s="0" t="n"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="n"/>
+      <c r="B165" s="0" t="n"/>
+      <c r="C165" s="0" t="n"/>
+      <c r="D165" s="0" t="n"/>
+      <c r="E165" s="0" t="n"/>
+      <c r="F165" s="0" t="n"/>
+      <c r="G165" s="0" t="n"/>
+      <c r="H165" s="0" t="n"/>
+      <c r="I165" s="0" t="n"/>
+      <c r="K165" s="0" t="n"/>
+      <c r="L165" s="0" t="n"/>
+      <c r="M165" s="0" t="n"/>
+      <c r="N165" s="0" t="n"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="n"/>
+      <c r="B166" s="0" t="n"/>
+      <c r="C166" s="0" t="n"/>
+      <c r="D166" s="0" t="n"/>
+      <c r="E166" s="0" t="n"/>
+      <c r="F166" s="0" t="n"/>
+      <c r="G166" s="0" t="n"/>
+      <c r="H166" s="0" t="n"/>
+      <c r="I166" s="0" t="n"/>
+      <c r="K166" s="0" t="n"/>
+      <c r="L166" s="0" t="n"/>
+      <c r="M166" s="0" t="n"/>
+      <c r="N166" s="0" t="n"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="n"/>
+      <c r="B167" s="0" t="n"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="n"/>
+      <c r="B168" s="0" t="n"/>
+      <c r="C168" s="0" t="n"/>
+      <c r="D168" s="0" t="n"/>
+      <c r="E168" s="0" t="n"/>
+      <c r="F168" s="0" t="n"/>
+      <c r="G168" s="0" t="n"/>
+      <c r="H168" s="0" t="n"/>
+      <c r="I168" s="0" t="n"/>
+      <c r="J168" s="0" t="n"/>
+      <c r="L168" s="0" t="n"/>
+      <c r="M168" s="0" t="n"/>
+      <c r="N168" s="0" t="n"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="n"/>
+      <c r="B169" s="0" t="n"/>
+      <c r="C169" s="0" t="n"/>
+      <c r="D169" s="0" t="n"/>
+      <c r="E169" s="0" t="n"/>
+      <c r="F169" s="0" t="n"/>
+      <c r="G169" s="0" t="n"/>
+      <c r="H169" s="0" t="n"/>
+      <c r="I169" s="0" t="n"/>
+      <c r="K169" s="0" t="n"/>
+      <c r="L169" s="0" t="n"/>
+      <c r="M169" s="0" t="n"/>
+      <c r="N169" s="0" t="n"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="n"/>
+      <c r="B170" s="0" t="n"/>
+      <c r="C170" s="0" t="n"/>
+      <c r="D170" s="0" t="n"/>
+      <c r="E170" s="0" t="n"/>
+      <c r="F170" s="0" t="n"/>
+      <c r="G170" s="0" t="n"/>
+      <c r="H170" s="0" t="n"/>
+      <c r="I170" s="0" t="n"/>
+      <c r="J170" s="0" t="n"/>
+      <c r="L170" s="0" t="n"/>
+      <c r="M170" s="0" t="n"/>
+      <c r="N170" s="0" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="n"/>
+      <c r="B171" s="0" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="n"/>
+      <c r="B172" s="0" t="n"/>
+      <c r="C172" s="0" t="n"/>
+      <c r="D172" s="0" t="n"/>
+      <c r="E172" s="0" t="n"/>
+      <c r="F172" s="0" t="n"/>
+      <c r="G172" s="0" t="n"/>
+      <c r="H172" s="0" t="n"/>
+      <c r="I172" s="0" t="n"/>
+      <c r="K172" s="0" t="n"/>
+      <c r="L172" s="0" t="n"/>
+      <c r="M172" s="0" t="n"/>
+      <c r="N172" s="0" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="n"/>
+      <c r="B173" s="0" t="n"/>
+      <c r="C173" s="0" t="n"/>
+      <c r="D173" s="0" t="n"/>
+      <c r="E173" s="0" t="n"/>
+      <c r="F173" s="0" t="n"/>
+      <c r="G173" s="0" t="n"/>
+      <c r="H173" s="0" t="n"/>
+      <c r="I173" s="0" t="n"/>
+      <c r="J173" s="0" t="n"/>
+      <c r="L173" s="0" t="n"/>
+      <c r="M173" s="0" t="n"/>
+      <c r="N173" s="0" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="n"/>
+      <c r="B174" s="0" t="n"/>
+      <c r="C174" s="0" t="n"/>
+      <c r="D174" s="0" t="n"/>
+      <c r="E174" s="0" t="n"/>
+      <c r="F174" s="0" t="n"/>
+      <c r="G174" s="0" t="n"/>
+      <c r="H174" s="0" t="n"/>
+      <c r="I174" s="0" t="n"/>
+      <c r="J174" s="0" t="n"/>
+      <c r="L174" s="0" t="n"/>
+      <c r="M174" s="0" t="n"/>
+      <c r="N174" s="0" t="n"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="n"/>
+      <c r="B175" s="0" t="n"/>
+      <c r="C175" s="0" t="n"/>
+      <c r="D175" s="0" t="n"/>
+      <c r="E175" s="0" t="n"/>
+      <c r="F175" s="0" t="n"/>
+      <c r="G175" s="0" t="n"/>
+      <c r="H175" s="0" t="n"/>
+      <c r="I175" s="0" t="n"/>
+      <c r="J175" s="0" t="n"/>
+      <c r="L175" s="0" t="n"/>
+      <c r="M175" s="0" t="n"/>
+      <c r="N175" s="0" t="n"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="n"/>
+      <c r="B176" s="0" t="n"/>
+      <c r="C176" s="0" t="n"/>
+      <c r="D176" s="0" t="n"/>
+      <c r="E176" s="0" t="n"/>
+      <c r="F176" s="0" t="n"/>
+      <c r="G176" s="0" t="n"/>
+      <c r="H176" s="0" t="n"/>
+      <c r="I176" s="0" t="n"/>
+      <c r="K176" s="0" t="n"/>
+      <c r="L176" s="0" t="n"/>
+      <c r="M176" s="0" t="n"/>
+      <c r="N176" s="0" t="n"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="n"/>
+      <c r="B177" s="0" t="n"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="n"/>
+      <c r="B178" s="0" t="n"/>
+      <c r="C178" s="0" t="n"/>
+      <c r="D178" s="0" t="n"/>
+      <c r="E178" s="0" t="n"/>
+      <c r="F178" s="0" t="n"/>
+      <c r="G178" s="0" t="n"/>
+      <c r="H178" s="0" t="n"/>
+      <c r="I178" s="0" t="n"/>
+      <c r="J178" s="0" t="n"/>
+      <c r="L178" s="0" t="n"/>
+      <c r="M178" s="0" t="n"/>
+      <c r="N178" s="0" t="n"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="n"/>
+      <c r="B179" s="0" t="n"/>
+      <c r="C179" s="0" t="n"/>
+      <c r="D179" s="0" t="n"/>
+      <c r="E179" s="0" t="n"/>
+      <c r="F179" s="0" t="n"/>
+      <c r="G179" s="0" t="n"/>
+      <c r="H179" s="0" t="n"/>
+      <c r="I179" s="0" t="n"/>
+      <c r="K179" s="0" t="n"/>
+      <c r="L179" s="0" t="n"/>
+      <c r="M179" s="0" t="n"/>
+      <c r="N179" s="0" t="n"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="n"/>
+      <c r="B180" s="0" t="n"/>
+      <c r="C180" s="0" t="n"/>
+      <c r="D180" s="0" t="n"/>
+      <c r="E180" s="0" t="n"/>
+      <c r="F180" s="0" t="n"/>
+      <c r="G180" s="0" t="n"/>
+      <c r="H180" s="0" t="n"/>
+      <c r="I180" s="0" t="n"/>
+      <c r="J180" s="0" t="n"/>
+      <c r="L180" s="0" t="n"/>
+      <c r="M180" s="0" t="n"/>
+      <c r="N180" s="0" t="n"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="n"/>
+      <c r="B181" s="0" t="n"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="n"/>
+      <c r="B182" s="0" t="n"/>
+      <c r="C182" s="0" t="n"/>
+      <c r="D182" s="0" t="n"/>
+      <c r="E182" s="0" t="n"/>
+      <c r="F182" s="0" t="n"/>
+      <c r="G182" s="0" t="n"/>
+      <c r="H182" s="0" t="n"/>
+      <c r="I182" s="0" t="n"/>
+      <c r="J182" s="0" t="n"/>
+      <c r="L182" s="0" t="n"/>
+      <c r="M182" s="0" t="n"/>
+      <c r="N182" s="0" t="n"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="n"/>
+      <c r="B183" s="0" t="n"/>
+      <c r="C183" s="0" t="n"/>
+      <c r="D183" s="0" t="n"/>
+      <c r="E183" s="0" t="n"/>
+      <c r="F183" s="0" t="n"/>
+      <c r="G183" s="0" t="n"/>
+      <c r="H183" s="0" t="n"/>
+      <c r="I183" s="0" t="n"/>
+      <c r="J183" s="0" t="n"/>
+      <c r="L183" s="0" t="n"/>
+      <c r="M183" s="0" t="n"/>
+      <c r="N183" s="0" t="n"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="n"/>
+      <c r="B184" s="0" t="n"/>
+      <c r="C184" s="0" t="n"/>
+      <c r="D184" s="0" t="n"/>
+      <c r="E184" s="0" t="n"/>
+      <c r="F184" s="0" t="n"/>
+      <c r="G184" s="0" t="n"/>
+      <c r="H184" s="0" t="n"/>
+      <c r="I184" s="0" t="n"/>
+      <c r="J184" s="0" t="n"/>
+      <c r="L184" s="0" t="n"/>
+      <c r="M184" s="0" t="n"/>
+      <c r="N184" s="0" t="n"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="n"/>
+      <c r="B185" s="0" t="n"/>
+      <c r="C185" s="0" t="n"/>
+      <c r="D185" s="0" t="n"/>
+      <c r="E185" s="0" t="n"/>
+      <c r="F185" s="0" t="n"/>
+      <c r="G185" s="0" t="n"/>
+      <c r="H185" s="0" t="n"/>
+      <c r="I185" s="0" t="n"/>
+      <c r="K185" s="0" t="n"/>
+      <c r="L185" s="0" t="n"/>
+      <c r="M185" s="0" t="n"/>
+      <c r="N185" s="0" t="n"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="n"/>
+      <c r="B186" s="0" t="n"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="n"/>
+      <c r="B187" s="0" t="n"/>
+      <c r="C187" s="0" t="n"/>
+      <c r="D187" s="0" t="n"/>
+      <c r="E187" s="0" t="n"/>
+      <c r="F187" s="0" t="n"/>
+      <c r="G187" s="0" t="n"/>
+      <c r="H187" s="0" t="n"/>
+      <c r="I187" s="0" t="n"/>
+      <c r="J187" s="0" t="n"/>
+      <c r="L187" s="0" t="n"/>
+      <c r="M187" s="0" t="n"/>
+      <c r="N187" s="0" t="n"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="n"/>
+      <c r="B188" s="0" t="n"/>
+      <c r="C188" s="0" t="n"/>
+      <c r="D188" s="0" t="n"/>
+      <c r="E188" s="0" t="n"/>
+      <c r="F188" s="0" t="n"/>
+      <c r="G188" s="0" t="n"/>
+      <c r="H188" s="0" t="n"/>
+      <c r="I188" s="0" t="n"/>
+      <c r="J188" s="0" t="n"/>
+      <c r="L188" s="0" t="n"/>
+      <c r="M188" s="0" t="n"/>
+      <c r="N188" s="0" t="n"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="n"/>
+      <c r="B189" s="0" t="n"/>
+      <c r="C189" s="0" t="n"/>
+      <c r="D189" s="0" t="n"/>
+      <c r="E189" s="0" t="n"/>
+      <c r="F189" s="0" t="n"/>
+      <c r="G189" s="0" t="n"/>
+      <c r="H189" s="0" t="n"/>
+      <c r="I189" s="0" t="n"/>
+      <c r="K189" s="0" t="n"/>
+      <c r="L189" s="0" t="n"/>
+      <c r="M189" s="0" t="n"/>
+      <c r="N189" s="0" t="n"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="n"/>
+      <c r="B190" s="0" t="n"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="n"/>
+      <c r="B191" s="0" t="n"/>
+      <c r="C191" s="0" t="n"/>
+      <c r="D191" s="0" t="n"/>
+      <c r="E191" s="0" t="n"/>
+      <c r="F191" s="0" t="n"/>
+      <c r="G191" s="0" t="n"/>
+      <c r="H191" s="0" t="n"/>
+      <c r="I191" s="0" t="n"/>
+      <c r="K191" s="0" t="n"/>
+      <c r="L191" s="0" t="n"/>
+      <c r="M191" s="0" t="n"/>
+      <c r="N191" s="0" t="n"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="n"/>
+      <c r="B192" s="0" t="n"/>
+      <c r="C192" s="0" t="n"/>
+      <c r="D192" s="0" t="n"/>
+      <c r="E192" s="0" t="n"/>
+      <c r="F192" s="0" t="n"/>
+      <c r="G192" s="0" t="n"/>
+      <c r="H192" s="0" t="n"/>
+      <c r="I192" s="0" t="n"/>
+      <c r="J192" s="0" t="n"/>
+      <c r="L192" s="0" t="n"/>
+      <c r="M192" s="0" t="n"/>
+      <c r="N192" s="0" t="n"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="n"/>
+      <c r="B193" s="0" t="n"/>
+      <c r="C193" s="0" t="n"/>
+      <c r="D193" s="0" t="n"/>
+      <c r="E193" s="0" t="n"/>
+      <c r="F193" s="0" t="n"/>
+      <c r="G193" s="0" t="n"/>
+      <c r="H193" s="0" t="n"/>
+      <c r="I193" s="0" t="n"/>
+      <c r="J193" s="0" t="n"/>
+      <c r="L193" s="0" t="n"/>
+      <c r="M193" s="0" t="n"/>
+      <c r="N193" s="0" t="n"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="n"/>
+      <c r="B194" s="0" t="n"/>
+      <c r="C194" s="0" t="n"/>
+      <c r="D194" s="0" t="n"/>
+      <c r="E194" s="0" t="n"/>
+      <c r="F194" s="0" t="n"/>
+      <c r="G194" s="0" t="n"/>
+      <c r="H194" s="0" t="n"/>
+      <c r="I194" s="0" t="n"/>
+      <c r="K194" s="0" t="n"/>
+      <c r="L194" s="0" t="n"/>
+      <c r="M194" s="0" t="n"/>
+      <c r="N194" s="0" t="n"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="n"/>
+      <c r="B195" s="0" t="n"/>
+      <c r="C195" s="0" t="n"/>
+      <c r="D195" s="0" t="n"/>
+      <c r="E195" s="0" t="n"/>
+      <c r="F195" s="0" t="n"/>
+      <c r="G195" s="0" t="n"/>
+      <c r="H195" s="0" t="n"/>
+      <c r="I195" s="0" t="n"/>
+      <c r="K195" s="0" t="n"/>
+      <c r="L195" s="0" t="n"/>
+      <c r="M195" s="0" t="n"/>
+      <c r="N195" s="0" t="n"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="n"/>
+      <c r="B196" s="0" t="n"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="n"/>
+      <c r="B197" s="0" t="n"/>
+      <c r="C197" s="0" t="n"/>
+      <c r="D197" s="0" t="n"/>
+      <c r="E197" s="0" t="n"/>
+      <c r="F197" s="0" t="n"/>
+      <c r="G197" s="0" t="n"/>
+      <c r="H197" s="0" t="n"/>
+      <c r="I197" s="0" t="n"/>
+      <c r="J197" s="0" t="n"/>
+      <c r="L197" s="0" t="n"/>
+      <c r="M197" s="0" t="n"/>
+      <c r="N197" s="0" t="n"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="n"/>
+      <c r="B198" s="0" t="n"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="n"/>
+      <c r="B199" s="0" t="n"/>
+      <c r="C199" s="0" t="n"/>
+      <c r="D199" s="0" t="n"/>
+      <c r="E199" s="0" t="n"/>
+      <c r="F199" s="0" t="n"/>
+      <c r="G199" s="0" t="n"/>
+      <c r="H199" s="0" t="n"/>
+      <c r="I199" s="0" t="n"/>
+      <c r="K199" s="0" t="n"/>
+      <c r="L199" s="0" t="n"/>
+      <c r="M199" s="0" t="n"/>
+      <c r="N199" s="0" t="n"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="n"/>
+      <c r="B200" s="0" t="n"/>
+      <c r="C200" s="0" t="n"/>
+      <c r="D200" s="0" t="n"/>
+      <c r="E200" s="0" t="n"/>
+      <c r="F200" s="0" t="n"/>
+      <c r="G200" s="0" t="n"/>
+      <c r="H200" s="0" t="n"/>
+      <c r="I200" s="0" t="n"/>
+      <c r="J200" s="0" t="n"/>
+      <c r="L200" s="0" t="n"/>
+      <c r="M200" s="0" t="n"/>
+      <c r="N200" s="0" t="n"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="n"/>
+      <c r="B201" s="0" t="n"/>
+      <c r="C201" s="0" t="n"/>
+      <c r="D201" s="0" t="n"/>
+      <c r="E201" s="0" t="n"/>
+      <c r="F201" s="0" t="n"/>
+      <c r="G201" s="0" t="n"/>
+      <c r="H201" s="0" t="n"/>
+      <c r="I201" s="0" t="n"/>
+      <c r="K201" s="0" t="n"/>
+      <c r="L201" s="0" t="n"/>
+      <c r="M201" s="0" t="n"/>
+      <c r="N201" s="0" t="n"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="n"/>
+      <c r="B202" s="0" t="n"/>
+      <c r="C202" s="0" t="n"/>
+      <c r="D202" s="0" t="n"/>
+      <c r="E202" s="0" t="n"/>
+      <c r="F202" s="0" t="n"/>
+      <c r="G202" s="0" t="n"/>
+      <c r="H202" s="0" t="n"/>
+      <c r="I202" s="0" t="n"/>
+      <c r="J202" s="0" t="n"/>
+      <c r="L202" s="0" t="n"/>
+      <c r="M202" s="0" t="n"/>
+      <c r="N202" s="0" t="n"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="n"/>
+      <c r="B203" s="0" t="n"/>
+      <c r="C203" s="0" t="n"/>
+      <c r="D203" s="0" t="n"/>
+      <c r="E203" s="0" t="n"/>
+      <c r="F203" s="0" t="n"/>
+      <c r="G203" s="0" t="n"/>
+      <c r="H203" s="0" t="n"/>
+      <c r="I203" s="0" t="n"/>
+      <c r="J203" s="0" t="n"/>
+      <c r="L203" s="0" t="n"/>
+      <c r="M203" s="0" t="n"/>
+      <c r="N203" s="0" t="n"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="n"/>
+      <c r="B204" s="0" t="n"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="n"/>
+      <c r="B205" s="0" t="n"/>
+      <c r="C205" s="0" t="n"/>
+      <c r="D205" s="0" t="n"/>
+      <c r="E205" s="0" t="n"/>
+      <c r="F205" s="0" t="n"/>
+      <c r="G205" s="0" t="n"/>
+      <c r="H205" s="0" t="n"/>
+      <c r="I205" s="0" t="n"/>
+      <c r="J205" s="0" t="n"/>
+      <c r="L205" s="0" t="n"/>
+      <c r="M205" s="0" t="n"/>
+      <c r="N205" s="0" t="n"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="n"/>
+      <c r="B206" s="0" t="n"/>
+      <c r="C206" s="0" t="n"/>
+      <c r="D206" s="0" t="n"/>
+      <c r="E206" s="0" t="n"/>
+      <c r="F206" s="0" t="n"/>
+      <c r="G206" s="0" t="n"/>
+      <c r="H206" s="0" t="n"/>
+      <c r="I206" s="0" t="n"/>
+      <c r="J206" s="0" t="n"/>
+      <c r="K206" s="0" t="n"/>
+      <c r="L206" s="0" t="n"/>
+      <c r="M206" s="0" t="n"/>
+      <c r="N206" s="0" t="n"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="n"/>
+      <c r="B207" s="0" t="n"/>
+      <c r="C207" s="0" t="n"/>
+      <c r="D207" s="0" t="n"/>
+      <c r="E207" s="0" t="n"/>
+      <c r="F207" s="0" t="n"/>
+      <c r="G207" s="0" t="n"/>
+      <c r="H207" s="0" t="n"/>
+      <c r="I207" s="0" t="n"/>
+      <c r="K207" s="0" t="n"/>
+      <c r="L207" s="0" t="n"/>
+      <c r="M207" s="0" t="n"/>
+      <c r="N207" s="0" t="n"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="n"/>
+      <c r="B208" s="0" t="n"/>
+      <c r="C208" s="0" t="n"/>
+      <c r="D208" s="0" t="n"/>
+      <c r="E208" s="0" t="n"/>
+      <c r="F208" s="0" t="n"/>
+      <c r="G208" s="0" t="n"/>
+      <c r="H208" s="0" t="n"/>
+      <c r="I208" s="0" t="n"/>
+      <c r="J208" s="0" t="n"/>
+      <c r="L208" s="0" t="n"/>
+      <c r="M208" s="0" t="n"/>
+      <c r="N208" s="0" t="n"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="n"/>
+      <c r="B209" s="0" t="n"/>
+      <c r="C209" s="0" t="n"/>
+      <c r="D209" s="0" t="n"/>
+      <c r="E209" s="0" t="n"/>
+      <c r="F209" s="0" t="n"/>
+      <c r="G209" s="0" t="n"/>
+      <c r="H209" s="0" t="n"/>
+      <c r="I209" s="0" t="n"/>
+      <c r="K209" s="0" t="n"/>
+      <c r="L209" s="0" t="n"/>
+      <c r="M209" s="0" t="n"/>
+      <c r="N209" s="0" t="n"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="n"/>
+      <c r="B210" s="0" t="n"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="n"/>
+      <c r="B211" s="0" t="n"/>
+      <c r="C211" s="0" t="n"/>
+      <c r="D211" s="0" t="n"/>
+      <c r="E211" s="0" t="n"/>
+      <c r="F211" s="0" t="n"/>
+      <c r="G211" s="0" t="n"/>
+      <c r="H211" s="0" t="n"/>
+      <c r="I211" s="0" t="n"/>
+      <c r="J211" s="0" t="n"/>
+      <c r="L211" s="0" t="n"/>
+      <c r="M211" s="0" t="n"/>
+      <c r="N211" s="0" t="n"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="n"/>
+      <c r="B212" s="0" t="n"/>
+      <c r="C212" s="0" t="n"/>
+      <c r="D212" s="0" t="n"/>
+      <c r="E212" s="0" t="n"/>
+      <c r="F212" s="0" t="n"/>
+      <c r="G212" s="0" t="n"/>
+      <c r="H212" s="0" t="n"/>
+      <c r="I212" s="0" t="n"/>
+      <c r="J212" s="0" t="n"/>
+      <c r="L212" s="0" t="n"/>
+      <c r="M212" s="0" t="n"/>
+      <c r="N212" s="0" t="n"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="n"/>
+      <c r="B213" s="0" t="n"/>
+      <c r="C213" s="0" t="n"/>
+      <c r="D213" s="0" t="n"/>
+      <c r="E213" s="0" t="n"/>
+      <c r="F213" s="0" t="n"/>
+      <c r="G213" s="0" t="n"/>
+      <c r="H213" s="0" t="n"/>
+      <c r="I213" s="0" t="n"/>
+      <c r="K213" s="0" t="n"/>
+      <c r="L213" s="0" t="n"/>
+      <c r="M213" s="0" t="n"/>
+      <c r="N213" s="0" t="n"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="n"/>
+      <c r="B214" s="0" t="n"/>
+      <c r="C214" s="0" t="n"/>
+      <c r="D214" s="0" t="n"/>
+      <c r="E214" s="0" t="n"/>
+      <c r="F214" s="0" t="n"/>
+      <c r="G214" s="0" t="n"/>
+      <c r="H214" s="0" t="n"/>
+      <c r="I214" s="0" t="n"/>
+      <c r="J214" s="0" t="n"/>
+      <c r="K214" s="0" t="n"/>
+      <c r="L214" s="0" t="n"/>
+      <c r="M214" s="0" t="n"/>
+      <c r="N214" s="0" t="n"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="n"/>
+      <c r="B215" s="0" t="n"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="n"/>
+      <c r="B216" s="0" t="n"/>
+      <c r="C216" s="0" t="n"/>
+      <c r="D216" s="0" t="n"/>
+      <c r="E216" s="0" t="n"/>
+      <c r="F216" s="0" t="n"/>
+      <c r="G216" s="0" t="n"/>
+      <c r="H216" s="0" t="n"/>
+      <c r="I216" s="0" t="n"/>
+      <c r="J216" s="0" t="n"/>
+      <c r="L216" s="0" t="n"/>
+      <c r="M216" s="0" t="n"/>
+      <c r="N216" s="0" t="n"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="n"/>
+      <c r="B217" s="0" t="n"/>
+      <c r="C217" s="0" t="n"/>
+      <c r="D217" s="0" t="n"/>
+      <c r="E217" s="0" t="n"/>
+      <c r="F217" s="0" t="n"/>
+      <c r="G217" s="0" t="n"/>
+      <c r="H217" s="0" t="n"/>
+      <c r="I217" s="0" t="n"/>
+      <c r="J217" s="0" t="n"/>
+      <c r="L217" s="0" t="n"/>
+      <c r="M217" s="0" t="n"/>
+      <c r="N217" s="0" t="n"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="n"/>
+      <c r="B218" s="0" t="n"/>
+      <c r="C218" s="0" t="n"/>
+      <c r="D218" s="0" t="n"/>
+      <c r="E218" s="0" t="n"/>
+      <c r="F218" s="0" t="n"/>
+      <c r="G218" s="0" t="n"/>
+      <c r="H218" s="0" t="n"/>
+      <c r="I218" s="0" t="n"/>
+      <c r="K218" s="0" t="n"/>
+      <c r="L218" s="0" t="n"/>
+      <c r="M218" s="0" t="n"/>
+      <c r="N218" s="0" t="n"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="n"/>
+      <c r="B219" s="0" t="n"/>
+      <c r="C219" s="0" t="n"/>
+      <c r="D219" s="0" t="n"/>
+      <c r="E219" s="0" t="n"/>
+      <c r="F219" s="0" t="n"/>
+      <c r="G219" s="0" t="n"/>
+      <c r="H219" s="0" t="n"/>
+      <c r="I219" s="0" t="n"/>
+      <c r="J219" s="0" t="n"/>
+      <c r="L219" s="0" t="n"/>
+      <c r="M219" s="0" t="n"/>
+      <c r="N219" s="0" t="n"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="n"/>
+      <c r="B220" s="0" t="n"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="n"/>
+      <c r="B221" s="0" t="n"/>
+      <c r="C221" s="0" t="n"/>
+      <c r="D221" s="0" t="n"/>
+      <c r="E221" s="0" t="n"/>
+      <c r="F221" s="0" t="n"/>
+      <c r="G221" s="0" t="n"/>
+      <c r="H221" s="0" t="n"/>
+      <c r="I221" s="0" t="n"/>
+      <c r="J221" s="0" t="n"/>
+      <c r="L221" s="0" t="n"/>
+      <c r="M221" s="0" t="n"/>
+      <c r="N221" s="0" t="n"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="n"/>
+      <c r="B222" s="0" t="n"/>
+      <c r="C222" s="0" t="n"/>
+      <c r="D222" s="0" t="n"/>
+      <c r="E222" s="0" t="n"/>
+      <c r="F222" s="0" t="n"/>
+      <c r="G222" s="0" t="n"/>
+      <c r="H222" s="0" t="n"/>
+      <c r="I222" s="0" t="n"/>
+      <c r="J222" s="0" t="n"/>
+      <c r="L222" s="0" t="n"/>
+      <c r="M222" s="0" t="n"/>
+      <c r="N222" s="0" t="n"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="n"/>
+      <c r="B223" s="0" t="n"/>
+      <c r="C223" s="0" t="n"/>
+      <c r="D223" s="0" t="n"/>
+      <c r="E223" s="0" t="n"/>
+      <c r="F223" s="0" t="n"/>
+      <c r="G223" s="0" t="n"/>
+      <c r="H223" s="0" t="n"/>
+      <c r="I223" s="0" t="n"/>
+      <c r="J223" s="0" t="n"/>
+      <c r="L223" s="0" t="n"/>
+      <c r="M223" s="0" t="n"/>
+      <c r="N223" s="0" t="n"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="n"/>
+      <c r="B224" s="0" t="n"/>
+      <c r="C224" s="0" t="n"/>
+      <c r="D224" s="0" t="n"/>
+      <c r="E224" s="0" t="n"/>
+      <c r="F224" s="0" t="n"/>
+      <c r="G224" s="0" t="n"/>
+      <c r="H224" s="0" t="n"/>
+      <c r="I224" s="0" t="n"/>
+      <c r="J224" s="0" t="n"/>
+      <c r="K224" s="0" t="n"/>
+      <c r="L224" s="0" t="n"/>
+      <c r="M224" s="0" t="n"/>
+      <c r="N224" s="0" t="n"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="n"/>
+      <c r="B225" s="0" t="n"/>
+      <c r="C225" s="0" t="n"/>
+      <c r="D225" s="0" t="n"/>
+      <c r="E225" s="0" t="n"/>
+      <c r="F225" s="0" t="n"/>
+      <c r="G225" s="0" t="n"/>
+      <c r="H225" s="0" t="n"/>
+      <c r="I225" s="0" t="n"/>
+      <c r="K225" s="0" t="n"/>
+      <c r="L225" s="0" t="n"/>
+      <c r="M225" s="0" t="n"/>
+      <c r="N225" s="0" t="n"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="n"/>
+      <c r="B226" s="0" t="n"/>
+      <c r="C226" s="0" t="n"/>
+      <c r="D226" s="0" t="n"/>
+      <c r="E226" s="0" t="n"/>
+      <c r="F226" s="0" t="n"/>
+      <c r="G226" s="0" t="n"/>
+      <c r="H226" s="0" t="n"/>
+      <c r="I226" s="0" t="n"/>
+      <c r="J226" s="0" t="n"/>
+      <c r="L226" s="0" t="n"/>
+      <c r="M226" s="0" t="n"/>
+      <c r="N226" s="0" t="n"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="n"/>
+      <c r="B227" s="0" t="n"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="n"/>
+      <c r="B228" s="0" t="n"/>
+      <c r="C228" s="0" t="n"/>
+      <c r="D228" s="0" t="n"/>
+      <c r="E228" s="0" t="n"/>
+      <c r="F228" s="0" t="n"/>
+      <c r="G228" s="0" t="n"/>
+      <c r="H228" s="0" t="n"/>
+      <c r="I228" s="0" t="n"/>
+      <c r="J228" s="0" t="n"/>
+      <c r="L228" s="0" t="n"/>
+      <c r="M228" s="0" t="n"/>
+      <c r="N228" s="0" t="n"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="n"/>
+      <c r="B229" s="0" t="n"/>
+      <c r="C229" s="0" t="n"/>
+      <c r="D229" s="0" t="n"/>
+      <c r="E229" s="0" t="n"/>
+      <c r="F229" s="0" t="n"/>
+      <c r="G229" s="0" t="n"/>
+      <c r="H229" s="0" t="n"/>
+      <c r="I229" s="0" t="n"/>
+      <c r="J229" s="0" t="n"/>
+      <c r="L229" s="0" t="n"/>
+      <c r="M229" s="0" t="n"/>
+      <c r="N229" s="0" t="n"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="n"/>
+      <c r="B230" s="0" t="n"/>
+      <c r="C230" s="0" t="n"/>
+      <c r="D230" s="0" t="n"/>
+      <c r="E230" s="0" t="n"/>
+      <c r="F230" s="0" t="n"/>
+      <c r="G230" s="0" t="n"/>
+      <c r="H230" s="0" t="n"/>
+      <c r="I230" s="0" t="n"/>
+      <c r="K230" s="0" t="n"/>
+      <c r="L230" s="0" t="n"/>
+      <c r="M230" s="0" t="n"/>
+      <c r="N230" s="0" t="n"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="n"/>
+      <c r="B231" s="0" t="n"/>
+      <c r="C231" s="0" t="n"/>
+      <c r="D231" s="0" t="n"/>
+      <c r="E231" s="0" t="n"/>
+      <c r="F231" s="0" t="n"/>
+      <c r="G231" s="0" t="n"/>
+      <c r="H231" s="0" t="n"/>
+      <c r="I231" s="0" t="n"/>
+      <c r="K231" s="0" t="n"/>
+      <c r="L231" s="0" t="n"/>
+      <c r="M231" s="0" t="n"/>
+      <c r="N231" s="0" t="n"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="n"/>
+      <c r="B232" s="0" t="n"/>
+      <c r="C232" s="0" t="n"/>
+      <c r="D232" s="0" t="n"/>
+      <c r="E232" s="0" t="n"/>
+      <c r="F232" s="0" t="n"/>
+      <c r="G232" s="0" t="n"/>
+      <c r="H232" s="0" t="n"/>
+      <c r="I232" s="0" t="n"/>
+      <c r="J232" s="0" t="n"/>
+      <c r="L232" s="0" t="n"/>
+      <c r="M232" s="0" t="n"/>
+      <c r="N232" s="0" t="n"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="n"/>
+      <c r="B233" s="0" t="n"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="n"/>
+      <c r="B234" s="0" t="n"/>
+      <c r="C234" s="0" t="n"/>
+      <c r="D234" s="0" t="n"/>
+      <c r="E234" s="0" t="n"/>
+      <c r="F234" s="0" t="n"/>
+      <c r="G234" s="0" t="n"/>
+      <c r="H234" s="0" t="n"/>
+      <c r="I234" s="0" t="n"/>
+      <c r="J234" s="0" t="n"/>
+      <c r="L234" s="0" t="n"/>
+      <c r="M234" s="0" t="n"/>
+      <c r="N234" s="0" t="n"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="n"/>
+      <c r="B235" s="0" t="n"/>
+      <c r="C235" s="0" t="n"/>
+      <c r="D235" s="0" t="n"/>
+      <c r="E235" s="0" t="n"/>
+      <c r="F235" s="0" t="n"/>
+      <c r="G235" s="0" t="n"/>
+      <c r="H235" s="0" t="n"/>
+      <c r="I235" s="0" t="n"/>
+      <c r="K235" s="0" t="n"/>
+      <c r="L235" s="0" t="n"/>
+      <c r="M235" s="0" t="n"/>
+      <c r="N235" s="0" t="n"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="n"/>
+      <c r="B236" s="0" t="n"/>
+      <c r="C236" s="0" t="n"/>
+      <c r="D236" s="0" t="n"/>
+      <c r="E236" s="0" t="n"/>
+      <c r="F236" s="0" t="n"/>
+      <c r="G236" s="0" t="n"/>
+      <c r="H236" s="0" t="n"/>
+      <c r="I236" s="0" t="n"/>
+      <c r="J236" s="0" t="n"/>
+      <c r="K236" s="0" t="n"/>
+      <c r="L236" s="0" t="n"/>
+      <c r="M236" s="0" t="n"/>
+      <c r="N236" s="0" t="n"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="n"/>
+      <c r="B237" s="0" t="n"/>
+      <c r="C237" s="0" t="n"/>
+      <c r="D237" s="0" t="n"/>
+      <c r="E237" s="0" t="n"/>
+      <c r="F237" s="0" t="n"/>
+      <c r="G237" s="0" t="n"/>
+      <c r="H237" s="0" t="n"/>
+      <c r="I237" s="0" t="n"/>
+      <c r="J237" s="0" t="n"/>
+      <c r="L237" s="0" t="n"/>
+      <c r="M237" s="0" t="n"/>
+      <c r="N237" s="0" t="n"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="n"/>
+      <c r="B238" s="0" t="n"/>
+      <c r="C238" s="0" t="n"/>
+      <c r="D238" s="0" t="n"/>
+      <c r="E238" s="0" t="n"/>
+      <c r="F238" s="0" t="n"/>
+      <c r="G238" s="0" t="n"/>
+      <c r="H238" s="0" t="n"/>
+      <c r="I238" s="0" t="n"/>
+      <c r="J238" s="0" t="n"/>
+      <c r="L238" s="0" t="n"/>
+      <c r="M238" s="0" t="n"/>
+      <c r="N238" s="0" t="n"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="n"/>
+      <c r="B239" s="0" t="n"/>
+      <c r="C239" s="0" t="n"/>
+      <c r="D239" s="0" t="n"/>
+      <c r="E239" s="0" t="n"/>
+      <c r="F239" s="0" t="n"/>
+      <c r="G239" s="0" t="n"/>
+      <c r="H239" s="0" t="n"/>
+      <c r="I239" s="0" t="n"/>
+      <c r="K239" s="0" t="n"/>
+      <c r="L239" s="0" t="n"/>
+      <c r="M239" s="0" t="n"/>
+      <c r="N239" s="0" t="n"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="n"/>
+      <c r="B240" s="0" t="n"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="n"/>
+      <c r="B241" s="0" t="n"/>
+      <c r="C241" s="0" t="n"/>
+      <c r="D241" s="0" t="n"/>
+      <c r="E241" s="0" t="n"/>
+      <c r="F241" s="0" t="n"/>
+      <c r="G241" s="0" t="n"/>
+      <c r="H241" s="0" t="n"/>
+      <c r="I241" s="0" t="n"/>
+      <c r="J241" s="0" t="n"/>
+      <c r="L241" s="0" t="n"/>
+      <c r="M241" s="0" t="n"/>
+      <c r="N241" s="0" t="n"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="n"/>
+      <c r="B242" s="0" t="n"/>
+      <c r="C242" s="0" t="n"/>
+      <c r="D242" s="0" t="n"/>
+      <c r="E242" s="0" t="n"/>
+      <c r="F242" s="0" t="n"/>
+      <c r="G242" s="0" t="n"/>
+      <c r="H242" s="0" t="n"/>
+      <c r="I242" s="0" t="n"/>
+      <c r="J242" s="0" t="n"/>
+      <c r="L242" s="0" t="n"/>
+      <c r="M242" s="0" t="n"/>
+      <c r="N242" s="0" t="n"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="n"/>
+      <c r="B243" s="0" t="n"/>
+      <c r="C243" s="0" t="n"/>
+      <c r="D243" s="0" t="n"/>
+      <c r="E243" s="0" t="n"/>
+      <c r="F243" s="0" t="n"/>
+      <c r="G243" s="0" t="n"/>
+      <c r="H243" s="0" t="n"/>
+      <c r="I243" s="0" t="n"/>
+      <c r="J243" s="0" t="n"/>
+      <c r="L243" s="0" t="n"/>
+      <c r="M243" s="0" t="n"/>
+      <c r="N243" s="0" t="n"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="n"/>
+      <c r="B244" s="0" t="n"/>
+      <c r="C244" s="0" t="n"/>
+      <c r="D244" s="0" t="n"/>
+      <c r="E244" s="0" t="n"/>
+      <c r="F244" s="0" t="n"/>
+      <c r="G244" s="0" t="n"/>
+      <c r="H244" s="0" t="n"/>
+      <c r="I244" s="0" t="n"/>
+      <c r="J244" s="0" t="n"/>
+      <c r="K244" s="0" t="n"/>
+      <c r="L244" s="0" t="n"/>
+      <c r="M244" s="0" t="n"/>
+      <c r="N244" s="0" t="n"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="n"/>
+      <c r="B245" s="0" t="n"/>
+      <c r="C245" s="0" t="n"/>
+      <c r="D245" s="0" t="n"/>
+      <c r="E245" s="0" t="n"/>
+      <c r="F245" s="0" t="n"/>
+      <c r="G245" s="0" t="n"/>
+      <c r="H245" s="0" t="n"/>
+      <c r="I245" s="0" t="n"/>
+      <c r="K245" s="0" t="n"/>
+      <c r="L245" s="0" t="n"/>
+      <c r="M245" s="0" t="n"/>
+      <c r="N245" s="0" t="n"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="n"/>
+      <c r="B246" s="0" t="n"/>
+      <c r="C246" s="0" t="n"/>
+      <c r="D246" s="0" t="n"/>
+      <c r="E246" s="0" t="n"/>
+      <c r="F246" s="0" t="n"/>
+      <c r="G246" s="0" t="n"/>
+      <c r="H246" s="0" t="n"/>
+      <c r="I246" s="0" t="n"/>
+      <c r="J246" s="0" t="n"/>
+      <c r="L246" s="0" t="n"/>
+      <c r="M246" s="0" t="n"/>
+      <c r="N246" s="0" t="n"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="n"/>
+      <c r="B247" s="0" t="n"/>
+      <c r="C247" s="0" t="n"/>
+      <c r="D247" s="0" t="n"/>
+      <c r="E247" s="0" t="n"/>
+      <c r="F247" s="0" t="n"/>
+      <c r="G247" s="0" t="n"/>
+      <c r="H247" s="0" t="n"/>
+      <c r="I247" s="0" t="n"/>
+      <c r="K247" s="0" t="n"/>
+      <c r="L247" s="0" t="n"/>
+      <c r="M247" s="0" t="n"/>
+      <c r="N247" s="0" t="n"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="n"/>
+      <c r="B248" s="0" t="n"/>
+      <c r="C248" s="0" t="n"/>
+      <c r="D248" s="0" t="n"/>
+      <c r="E248" s="0" t="n"/>
+      <c r="F248" s="0" t="n"/>
+      <c r="G248" s="0" t="n"/>
+      <c r="H248" s="0" t="n"/>
+      <c r="I248" s="0" t="n"/>
+      <c r="K248" s="0" t="n"/>
+      <c r="L248" s="0" t="n"/>
+      <c r="M248" s="0" t="n"/>
+      <c r="N248" s="0" t="n"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="n"/>
+      <c r="B249" s="0" t="n"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="n"/>
+      <c r="B250" s="0" t="n"/>
+      <c r="C250" s="0" t="n"/>
+      <c r="D250" s="0" t="n"/>
+      <c r="E250" s="0" t="n"/>
+      <c r="F250" s="0" t="n"/>
+      <c r="G250" s="0" t="n"/>
+      <c r="H250" s="0" t="n"/>
+      <c r="I250" s="0" t="n"/>
+      <c r="J250" s="0" t="n"/>
+      <c r="L250" s="0" t="n"/>
+      <c r="M250" s="0" t="n"/>
+      <c r="N250" s="0" t="n"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="n"/>
+      <c r="B251" s="0" t="n"/>
+      <c r="C251" s="0" t="n"/>
+      <c r="D251" s="0" t="n"/>
+      <c r="E251" s="0" t="n"/>
+      <c r="F251" s="0" t="n"/>
+      <c r="G251" s="0" t="n"/>
+      <c r="H251" s="0" t="n"/>
+      <c r="I251" s="0" t="n"/>
+      <c r="J251" s="0" t="n"/>
+      <c r="L251" s="0" t="n"/>
+      <c r="M251" s="0" t="n"/>
+      <c r="N251" s="0" t="n"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="n"/>
+      <c r="B252" s="0" t="n"/>
+      <c r="C252" s="0" t="n"/>
+      <c r="D252" s="0" t="n"/>
+      <c r="E252" s="0" t="n"/>
+      <c r="F252" s="0" t="n"/>
+      <c r="G252" s="0" t="n"/>
+      <c r="H252" s="0" t="n"/>
+      <c r="I252" s="0" t="n"/>
+      <c r="J252" s="0" t="n"/>
+      <c r="K252" s="0" t="n"/>
+      <c r="L252" s="0" t="n"/>
+      <c r="M252" s="0" t="n"/>
+      <c r="N252" s="0" t="n"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="n"/>
+      <c r="B253" s="0" t="n"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="n"/>
+      <c r="B254" s="0" t="n"/>
+      <c r="C254" s="0" t="n"/>
+      <c r="D254" s="0" t="n"/>
+      <c r="E254" s="0" t="n"/>
+      <c r="F254" s="0" t="n"/>
+      <c r="G254" s="0" t="n"/>
+      <c r="H254" s="0" t="n"/>
+      <c r="I254" s="0" t="n"/>
+      <c r="J254" s="0" t="n"/>
+      <c r="L254" s="0" t="n"/>
+      <c r="M254" s="0" t="n"/>
+      <c r="N254" s="0" t="n"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="n"/>
+      <c r="B255" s="0" t="n"/>
+      <c r="C255" s="0" t="n"/>
+      <c r="D255" s="0" t="n"/>
+      <c r="E255" s="0" t="n"/>
+      <c r="F255" s="0" t="n"/>
+      <c r="G255" s="0" t="n"/>
+      <c r="H255" s="0" t="n"/>
+      <c r="I255" s="0" t="n"/>
+      <c r="J255" s="0" t="n"/>
+      <c r="L255" s="0" t="n"/>
+      <c r="M255" s="0" t="n"/>
+      <c r="N255" s="0" t="n"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="n"/>
+      <c r="B256" s="0" t="n"/>
+      <c r="C256" s="0" t="n"/>
+      <c r="D256" s="0" t="n"/>
+      <c r="E256" s="0" t="n"/>
+      <c r="F256" s="0" t="n"/>
+      <c r="G256" s="0" t="n"/>
+      <c r="H256" s="0" t="n"/>
+      <c r="I256" s="0" t="n"/>
+      <c r="K256" s="0" t="n"/>
+      <c r="L256" s="0" t="n"/>
+      <c r="M256" s="0" t="n"/>
+      <c r="N256" s="0" t="n"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="n"/>
+      <c r="B257" s="0" t="n"/>
+      <c r="C257" s="0" t="n"/>
+      <c r="D257" s="0" t="n"/>
+      <c r="E257" s="0" t="n"/>
+      <c r="F257" s="0" t="n"/>
+      <c r="G257" s="0" t="n"/>
+      <c r="H257" s="0" t="n"/>
+      <c r="I257" s="0" t="n"/>
+      <c r="K257" s="0" t="n"/>
+      <c r="L257" s="0" t="n"/>
+      <c r="M257" s="0" t="n"/>
+      <c r="N257" s="0" t="n"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="n"/>
+      <c r="B258" s="0" t="n"/>
+      <c r="C258" s="0" t="n"/>
+      <c r="D258" s="0" t="n"/>
+      <c r="E258" s="0" t="n"/>
+      <c r="F258" s="0" t="n"/>
+      <c r="G258" s="0" t="n"/>
+      <c r="H258" s="0" t="n"/>
+      <c r="I258" s="0" t="n"/>
+      <c r="K258" s="0" t="n"/>
+      <c r="L258" s="0" t="n"/>
+      <c r="M258" s="0" t="n"/>
+      <c r="N258" s="0" t="n"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="n"/>
+      <c r="B259" s="0" t="n"/>
+      <c r="C259" s="0" t="n"/>
+      <c r="D259" s="0" t="n"/>
+      <c r="E259" s="0" t="n"/>
+      <c r="F259" s="0" t="n"/>
+      <c r="G259" s="0" t="n"/>
+      <c r="H259" s="0" t="n"/>
+      <c r="I259" s="0" t="n"/>
+      <c r="K259" s="0" t="n"/>
+      <c r="L259" s="0" t="n"/>
+      <c r="M259" s="0" t="n"/>
+      <c r="N259" s="0" t="n"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="n"/>
+      <c r="B260" s="0" t="n"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="n"/>
+      <c r="B261" s="0" t="n"/>
+      <c r="C261" s="0" t="n"/>
+      <c r="D261" s="0" t="n"/>
+      <c r="E261" s="0" t="n"/>
+      <c r="F261" s="0" t="n"/>
+      <c r="G261" s="0" t="n"/>
+      <c r="H261" s="0" t="n"/>
+      <c r="I261" s="0" t="n"/>
+      <c r="K261" s="0" t="n"/>
+      <c r="L261" s="0" t="n"/>
+      <c r="M261" s="0" t="n"/>
+      <c r="N261" s="0" t="n"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="n"/>
+      <c r="B262" s="0" t="n"/>
+      <c r="C262" s="0" t="n"/>
+      <c r="D262" s="0" t="n"/>
+      <c r="E262" s="0" t="n"/>
+      <c r="F262" s="0" t="n"/>
+      <c r="G262" s="0" t="n"/>
+      <c r="H262" s="0" t="n"/>
+      <c r="I262" s="0" t="n"/>
+      <c r="J262" s="0" t="n"/>
+      <c r="L262" s="0" t="n"/>
+      <c r="M262" s="0" t="n"/>
+      <c r="N262" s="0" t="n"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="n"/>
+      <c r="B263" s="0" t="n"/>
+      <c r="C263" s="0" t="n"/>
+      <c r="D263" s="0" t="n"/>
+      <c r="E263" s="0" t="n"/>
+      <c r="F263" s="0" t="n"/>
+      <c r="G263" s="0" t="n"/>
+      <c r="H263" s="0" t="n"/>
+      <c r="I263" s="0" t="n"/>
+      <c r="K263" s="0" t="n"/>
+      <c r="L263" s="0" t="n"/>
+      <c r="M263" s="0" t="n"/>
+      <c r="N263" s="0" t="n"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="n"/>
+      <c r="B264" s="0" t="n"/>
+      <c r="C264" s="0" t="n"/>
+      <c r="D264" s="0" t="n"/>
+      <c r="E264" s="0" t="n"/>
+      <c r="F264" s="0" t="n"/>
+      <c r="G264" s="0" t="n"/>
+      <c r="H264" s="0" t="n"/>
+      <c r="I264" s="0" t="n"/>
+      <c r="J264" s="0" t="n"/>
+      <c r="L264" s="0" t="n"/>
+      <c r="M264" s="0" t="n"/>
+      <c r="N264" s="0" t="n"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="n"/>
+      <c r="B265" s="0" t="n"/>
+      <c r="C265" s="0" t="n"/>
+      <c r="D265" s="0" t="n"/>
+      <c r="E265" s="0" t="n"/>
+      <c r="F265" s="0" t="n"/>
+      <c r="G265" s="0" t="n"/>
+      <c r="H265" s="0" t="n"/>
+      <c r="I265" s="0" t="n"/>
+      <c r="J265" s="0" t="n"/>
+      <c r="L265" s="0" t="n"/>
+      <c r="M265" s="0" t="n"/>
+      <c r="N265" s="0" t="n"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="n"/>
+      <c r="B266" s="0" t="n"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="n"/>
+      <c r="B267" s="0" t="n"/>
+      <c r="C267" s="0" t="n"/>
+      <c r="D267" s="0" t="n"/>
+      <c r="E267" s="0" t="n"/>
+      <c r="F267" s="0" t="n"/>
+      <c r="G267" s="0" t="n"/>
+      <c r="H267" s="0" t="n"/>
+      <c r="I267" s="0" t="n"/>
+      <c r="K267" s="0" t="n"/>
+      <c r="L267" s="0" t="n"/>
+      <c r="M267" s="0" t="n"/>
+      <c r="N267" s="0" t="n"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="n"/>
+      <c r="B268" s="0" t="n"/>
+      <c r="C268" s="0" t="n"/>
+      <c r="D268" s="0" t="n"/>
+      <c r="E268" s="0" t="n"/>
+      <c r="F268" s="0" t="n"/>
+      <c r="G268" s="0" t="n"/>
+      <c r="H268" s="0" t="n"/>
+      <c r="I268" s="0" t="n"/>
+      <c r="K268" s="0" t="n"/>
+      <c r="L268" s="0" t="n"/>
+      <c r="M268" s="0" t="n"/>
+      <c r="N268" s="0" t="n"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="n"/>
+      <c r="B269" s="0" t="n"/>
+      <c r="C269" s="0" t="n"/>
+      <c r="D269" s="0" t="n"/>
+      <c r="E269" s="0" t="n"/>
+      <c r="F269" s="0" t="n"/>
+      <c r="G269" s="0" t="n"/>
+      <c r="H269" s="0" t="n"/>
+      <c r="I269" s="0" t="n"/>
+      <c r="J269" s="0" t="n"/>
+      <c r="L269" s="0" t="n"/>
+      <c r="M269" s="0" t="n"/>
+      <c r="N269" s="0" t="n"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="n"/>
+      <c r="B270" s="0" t="n"/>
+      <c r="C270" s="0" t="n"/>
+      <c r="D270" s="0" t="n"/>
+      <c r="E270" s="0" t="n"/>
+      <c r="F270" s="0" t="n"/>
+      <c r="G270" s="0" t="n"/>
+      <c r="H270" s="0" t="n"/>
+      <c r="I270" s="0" t="n"/>
+      <c r="J270" s="0" t="n"/>
+      <c r="L270" s="0" t="n"/>
+      <c r="M270" s="0" t="n"/>
+      <c r="N270" s="0" t="n"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="n"/>
+      <c r="B271" s="0" t="n"/>
+      <c r="C271" s="0" t="n"/>
+      <c r="D271" s="0" t="n"/>
+      <c r="E271" s="0" t="n"/>
+      <c r="F271" s="0" t="n"/>
+      <c r="G271" s="0" t="n"/>
+      <c r="H271" s="0" t="n"/>
+      <c r="I271" s="0" t="n"/>
+      <c r="J271" s="0" t="n"/>
+      <c r="L271" s="0" t="n"/>
+      <c r="M271" s="0" t="n"/>
+      <c r="N271" s="0" t="n"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="n"/>
+      <c r="B272" s="0" t="n"/>
+      <c r="C272" s="0" t="n"/>
+      <c r="D272" s="0" t="n"/>
+      <c r="E272" s="0" t="n"/>
+      <c r="F272" s="0" t="n"/>
+      <c r="G272" s="0" t="n"/>
+      <c r="H272" s="0" t="n"/>
+      <c r="I272" s="0" t="n"/>
+      <c r="J272" s="0" t="n"/>
+      <c r="L272" s="0" t="n"/>
+      <c r="M272" s="0" t="n"/>
+      <c r="N272" s="0" t="n"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="n"/>
+      <c r="B273" s="0" t="n"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="n"/>
+      <c r="B274" s="0" t="n"/>
+      <c r="C274" s="0" t="n"/>
+      <c r="D274" s="0" t="n"/>
+      <c r="E274" s="0" t="n"/>
+      <c r="F274" s="0" t="n"/>
+      <c r="G274" s="0" t="n"/>
+      <c r="H274" s="0" t="n"/>
+      <c r="I274" s="0" t="n"/>
+      <c r="K274" s="0" t="n"/>
+      <c r="L274" s="0" t="n"/>
+      <c r="M274" s="0" t="n"/>
+      <c r="N274" s="0" t="n"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="n"/>
+      <c r="B275" s="0" t="n"/>
+      <c r="C275" s="0" t="n"/>
+      <c r="D275" s="0" t="n"/>
+      <c r="E275" s="0" t="n"/>
+      <c r="F275" s="0" t="n"/>
+      <c r="G275" s="0" t="n"/>
+      <c r="H275" s="0" t="n"/>
+      <c r="I275" s="0" t="n"/>
+      <c r="J275" s="0" t="n"/>
+      <c r="L275" s="0" t="n"/>
+      <c r="M275" s="0" t="n"/>
+      <c r="N275" s="0" t="n"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="n"/>
+      <c r="B276" s="0" t="n"/>
+      <c r="C276" s="0" t="n"/>
+      <c r="D276" s="0" t="n"/>
+      <c r="E276" s="0" t="n"/>
+      <c r="F276" s="0" t="n"/>
+      <c r="G276" s="0" t="n"/>
+      <c r="H276" s="0" t="n"/>
+      <c r="I276" s="0" t="n"/>
+      <c r="K276" s="0" t="n"/>
+      <c r="L276" s="0" t="n"/>
+      <c r="M276" s="0" t="n"/>
+      <c r="N276" s="0" t="n"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="n"/>
+      <c r="B277" s="0" t="n"/>
+      <c r="C277" s="0" t="n"/>
+      <c r="D277" s="0" t="n"/>
+      <c r="E277" s="0" t="n"/>
+      <c r="F277" s="0" t="n"/>
+      <c r="G277" s="0" t="n"/>
+      <c r="H277" s="0" t="n"/>
+      <c r="I277" s="0" t="n"/>
+      <c r="K277" s="0" t="n"/>
+      <c r="L277" s="0" t="n"/>
+      <c r="M277" s="0" t="n"/>
+      <c r="N277" s="0" t="n"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="n"/>
+      <c r="B278" s="0" t="n"/>
+      <c r="C278" s="0" t="n"/>
+      <c r="D278" s="0" t="n"/>
+      <c r="E278" s="0" t="n"/>
+      <c r="F278" s="0" t="n"/>
+      <c r="G278" s="0" t="n"/>
+      <c r="H278" s="0" t="n"/>
+      <c r="I278" s="0" t="n"/>
+      <c r="J278" s="0" t="n"/>
+      <c r="L278" s="0" t="n"/>
+      <c r="M278" s="0" t="n"/>
+      <c r="N278" s="0" t="n"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="n"/>
+      <c r="B279" s="0" t="n"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="n"/>
+      <c r="B280" s="0" t="n"/>
+      <c r="C280" s="0" t="n"/>
+      <c r="D280" s="0" t="n"/>
+      <c r="E280" s="0" t="n"/>
+      <c r="F280" s="0" t="n"/>
+      <c r="G280" s="0" t="n"/>
+      <c r="H280" s="0" t="n"/>
+      <c r="I280" s="0" t="n"/>
+      <c r="J280" s="0" t="n"/>
+      <c r="L280" s="0" t="n"/>
+      <c r="M280" s="0" t="n"/>
+      <c r="N280" s="0" t="n"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="n"/>
+      <c r="B281" s="0" t="n"/>
+      <c r="C281" s="0" t="n"/>
+      <c r="D281" s="0" t="n"/>
+      <c r="E281" s="0" t="n"/>
+      <c r="F281" s="0" t="n"/>
+      <c r="G281" s="0" t="n"/>
+      <c r="H281" s="0" t="n"/>
+      <c r="I281" s="0" t="n"/>
+      <c r="J281" s="0" t="n"/>
+      <c r="L281" s="0" t="n"/>
+      <c r="M281" s="0" t="n"/>
+      <c r="N281" s="0" t="n"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="n"/>
+      <c r="B282" s="0" t="n"/>
+      <c r="C282" s="0" t="n"/>
+      <c r="D282" s="0" t="n"/>
+      <c r="E282" s="0" t="n"/>
+      <c r="F282" s="0" t="n"/>
+      <c r="G282" s="0" t="n"/>
+      <c r="H282" s="0" t="n"/>
+      <c r="I282" s="0" t="n"/>
+      <c r="K282" s="0" t="n"/>
+      <c r="L282" s="0" t="n"/>
+      <c r="M282" s="0" t="n"/>
+      <c r="N282" s="0" t="n"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="n"/>
+      <c r="B283" s="0" t="n"/>
+      <c r="C283" s="0" t="n"/>
+      <c r="D283" s="0" t="n"/>
+      <c r="E283" s="0" t="n"/>
+      <c r="F283" s="0" t="n"/>
+      <c r="G283" s="0" t="n"/>
+      <c r="H283" s="0" t="n"/>
+      <c r="I283" s="0" t="n"/>
+      <c r="K283" s="0" t="n"/>
+      <c r="L283" s="0" t="n"/>
+      <c r="M283" s="0" t="n"/>
+      <c r="N283" s="0" t="n"/>
+    </row>
     <row r="284"/>
     <row r="285"/>
     <row r="286"/>
